--- a/Ucats/pages/猫咪档案.xlsx
+++ b/Ucats/pages/猫咪档案.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0084CDD-F0A6-4F63-845B-9B43C29966CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B544D62-F399-4065-A654-D5E276217A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="校内喵" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">校内喵!$A$12:$U$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">校内喵!$A$12:$U$134</definedName>
   </definedNames>
   <calcPr calcId="150001"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="294">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -602,18 +602,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2022年11月1号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022年12月1号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022年6月1号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>纯黑色，有点像猎犬。长毛，耷拉耳朵，尾巴扫帚状。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -815,10 +803,6 @@
   </si>
   <si>
     <t>2022-10-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年10月1号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1185,10 +1169,6 @@
   </si>
   <si>
     <t>大眼睛绝美三花</t>
-  </si>
-  <si>
-    <t>领养</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2023年9月1号</t>
@@ -1437,6 +1417,42 @@
   </si>
   <si>
     <t>狸局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年6月01号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年10月01号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年05月01号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年9月22号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年7月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年6月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年6月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年1月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女明星不是异瞳</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1808,7 +1824,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1938,9 +1954,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="57" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1953,7 +1966,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1977,28 +1989,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2022,6 +2012,31 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2322,11 +2337,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD616"/>
+  <dimension ref="A1:AD617"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <pane ySplit="12" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -2353,7 +2368,7 @@
     <col min="20" max="20" width="33" style="3" customWidth="1"/>
     <col min="21" max="21" width="18.86328125" style="3" customWidth="1"/>
     <col min="22" max="22" width="20.1328125" style="3" customWidth="1"/>
-    <col min="23" max="23" width="17.6640625" style="56" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" style="54" customWidth="1"/>
     <col min="24" max="24" width="17.6640625" style="3" customWidth="1"/>
     <col min="25" max="25" width="15.46484375" style="12" customWidth="1"/>
     <col min="26" max="26" width="12.46484375" style="3" customWidth="1"/>
@@ -2366,13 +2381,13 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.4">
@@ -2384,21 +2399,21 @@
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="69"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="71"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="4"/>
       <c r="M3" s="13" t="s">
         <v>20</v>
@@ -2422,10 +2437,10 @@
       <c r="U3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="63" t="s">
+      <c r="V3" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="57" t="s">
+      <c r="W3" s="55" t="s">
         <v>45</v>
       </c>
       <c r="X3" s="7"/>
@@ -2463,7 +2478,7 @@
       <c r="U4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="64"/>
+      <c r="V4" s="69"/>
       <c r="Y4" s="23" t="s">
         <v>51</v>
       </c>
@@ -2472,18 +2487,18 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
-      <c r="H5" s="68" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="H5" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="69"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="59"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2499,7 +2514,7 @@
       <c r="U5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="64"/>
+      <c r="V5" s="69"/>
       <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
@@ -2514,10 +2529,10 @@
       <c r="U6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="64" t="s">
+      <c r="V6" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="57" t="s">
+      <c r="W6" s="55" t="s">
         <v>54</v>
       </c>
       <c r="X6" s="7"/>
@@ -2562,7 +2577,7 @@
       <c r="U7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="64"/>
+      <c r="V7" s="69"/>
       <c r="Y7" s="21">
         <v>2</v>
       </c>
@@ -2592,7 +2607,7 @@
       <c r="U8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="64" t="s">
+      <c r="V8" s="69" t="s">
         <v>38</v>
       </c>
       <c r="Y8" s="21">
@@ -2624,7 +2639,7 @@
       <c r="U9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="64"/>
+      <c r="V9" s="69"/>
       <c r="Y9" s="21">
         <v>4</v>
       </c>
@@ -2647,7 +2662,7 @@
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="Q10" s="61" t="s">
+      <c r="Q10" s="66" t="s">
         <v>69</v>
       </c>
       <c r="R10" s="31" t="s">
@@ -2682,7 +2697,7 @@
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="Q11" s="62"/>
+      <c r="Q11" s="67"/>
       <c r="R11" s="4"/>
       <c r="V11" s="34" t="s">
         <v>72</v>
@@ -2730,7 +2745,7 @@
         <v>40</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>9</v>
@@ -2756,7 +2771,7 @@
       <c r="V12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W12" s="56" t="s">
+      <c r="W12" s="54" t="s">
         <v>61</v>
       </c>
       <c r="X12" s="3" t="s">
@@ -2770,15 +2785,15 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="30" x14ac:dyDescent="0.5">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51">
         <v>1</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="43" t="s">
@@ -2794,18 +2809,18 @@
         <v>0</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>251</v>
+        <v>43</v>
       </c>
       <c r="K13" s="38">
         <v>0</v>
       </c>
       <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="M13" s="74"/>
       <c r="N13" s="42">
         <v>0</v>
       </c>
       <c r="O13" s="39" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P13" s="43">
         <v>2</v>
@@ -2813,12 +2828,12 @@
       <c r="Q13" s="44"/>
       <c r="R13" s="43"/>
       <c r="S13" s="39" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="T13" s="39"/>
       <c r="U13" s="38"/>
       <c r="V13" s="38"/>
-      <c r="W13" s="58"/>
+      <c r="W13" s="56"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
       <c r="Z13" s="38"/>
@@ -2826,8 +2841,8 @@
       <c r="AB13" s="38"/>
     </row>
     <row r="14" spans="1:30" ht="60" x14ac:dyDescent="0.5">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53">
+      <c r="A14" s="50"/>
+      <c r="B14" s="51">
         <v>2</v>
       </c>
       <c r="C14" s="39" t="s">
@@ -2852,20 +2867,20 @@
         <v>1</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K14" s="38">
         <v>0</v>
       </c>
       <c r="L14" s="42"/>
-      <c r="M14" s="45">
-        <v>43831</v>
+      <c r="M14" s="74" t="s">
+        <v>292</v>
       </c>
       <c r="N14" s="42">
         <v>0</v>
       </c>
       <c r="O14" s="39" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P14" s="43">
         <v>6</v>
@@ -2873,14 +2888,14 @@
       <c r="Q14" s="44"/>
       <c r="R14" s="43"/>
       <c r="S14" s="39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="T14" s="39" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="U14" s="38"/>
       <c r="V14" s="38"/>
-      <c r="W14" s="58"/>
+      <c r="W14" s="56"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
       <c r="Z14" s="38"/>
@@ -2888,8 +2903,8 @@
       <c r="AB14" s="38"/>
     </row>
     <row r="15" spans="1:30" ht="45" x14ac:dyDescent="0.5">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53">
+      <c r="A15" s="50"/>
+      <c r="B15" s="51">
         <v>3</v>
       </c>
       <c r="C15" s="39" t="s">
@@ -2908,22 +2923,22 @@
       <c r="H15" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="45">
         <v>-1</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="K15" s="47">
-        <v>0</v>
-      </c>
-      <c r="L15" s="48"/>
-      <c r="M15" s="42"/>
+        <v>241</v>
+      </c>
+      <c r="K15" s="46">
+        <v>0</v>
+      </c>
+      <c r="L15" s="47"/>
+      <c r="M15" s="74"/>
       <c r="N15" s="42">
         <v>0</v>
       </c>
       <c r="O15" s="39" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P15" s="38">
         <v>-1</v>
@@ -2931,12 +2946,12 @@
       <c r="Q15" s="44"/>
       <c r="R15" s="43"/>
       <c r="S15" s="39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="T15" s="39"/>
       <c r="U15" s="38"/>
       <c r="V15" s="38"/>
-      <c r="W15" s="58"/>
+      <c r="W15" s="56"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
       <c r="Z15" s="38"/>
@@ -2944,8 +2959,8 @@
       <c r="AB15" s="38"/>
     </row>
     <row r="16" spans="1:30" ht="75" x14ac:dyDescent="0.5">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53">
+      <c r="A16" s="50"/>
+      <c r="B16" s="51">
         <v>4</v>
       </c>
       <c r="C16" s="39" t="s">
@@ -2955,31 +2970,31 @@
         <v>1</v>
       </c>
       <c r="E16" s="38"/>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="48">
         <v>4</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="45">
         <v>0</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K16" s="38">
         <v>0</v>
       </c>
       <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="M16" s="74"/>
       <c r="N16" s="42">
         <v>0</v>
       </c>
       <c r="O16" s="39" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P16" s="38">
         <v>0</v>
@@ -2987,14 +3002,14 @@
       <c r="Q16" s="44"/>
       <c r="R16" s="43"/>
       <c r="S16" s="39" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="T16" s="39" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="U16" s="38"/>
       <c r="V16" s="38"/>
-      <c r="W16" s="58"/>
+      <c r="W16" s="56"/>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
@@ -3002,8 +3017,8 @@
       <c r="AB16" s="38"/>
     </row>
     <row r="17" spans="1:28" ht="46.9" x14ac:dyDescent="0.5">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53">
+      <c r="A17" s="50"/>
+      <c r="B17" s="51">
         <v>5</v>
       </c>
       <c r="C17" s="39" t="s">
@@ -3022,35 +3037,35 @@
       <c r="H17" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="45">
         <v>0</v>
       </c>
       <c r="J17" s="39" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K17" s="38">
         <v>0</v>
       </c>
       <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="M17" s="74"/>
       <c r="N17" s="42">
         <v>0</v>
       </c>
       <c r="O17" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="P17" s="47">
+        <v>151</v>
+      </c>
+      <c r="P17" s="46">
         <v>6</v>
       </c>
       <c r="Q17" s="44"/>
       <c r="R17" s="43"/>
       <c r="S17" s="39" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="T17" s="39"/>
       <c r="U17" s="38"/>
       <c r="V17" s="38"/>
-      <c r="W17" s="58"/>
+      <c r="W17" s="56"/>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
@@ -3058,8 +3073,8 @@
       <c r="AB17" s="38"/>
     </row>
     <row r="18" spans="1:28" ht="45" x14ac:dyDescent="0.5">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53">
+      <c r="A18" s="50"/>
+      <c r="B18" s="51">
         <v>6</v>
       </c>
       <c r="C18" s="39" t="s">
@@ -3078,7 +3093,7 @@
       <c r="H18" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="45">
         <v>0</v>
       </c>
       <c r="J18" s="39" t="s">
@@ -3090,27 +3105,27 @@
       <c r="L18" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="M18" s="42"/>
+      <c r="M18" s="74"/>
       <c r="N18" s="42">
         <v>0</v>
       </c>
       <c r="O18" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="P18" s="47">
+        <v>152</v>
+      </c>
+      <c r="P18" s="46">
         <v>6</v>
       </c>
       <c r="Q18" s="44"/>
       <c r="R18" s="43"/>
       <c r="S18" s="39" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="T18" s="39"/>
       <c r="U18" s="38"/>
       <c r="V18" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="W18" s="58"/>
+      <c r="W18" s="56"/>
       <c r="X18" s="38"/>
       <c r="Y18" s="38"/>
       <c r="Z18" s="38"/>
@@ -3119,7 +3134,7 @@
     </row>
     <row r="19" spans="1:28" customFormat="1" ht="45" x14ac:dyDescent="0.5">
       <c r="A19" s="43"/>
-      <c r="B19" s="53">
+      <c r="B19" s="51">
         <v>7</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -3138,7 +3153,7 @@
       <c r="H19" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="45">
         <v>0</v>
       </c>
       <c r="J19" s="39" t="s">
@@ -3148,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
+      <c r="M19" s="53"/>
       <c r="N19" s="42">
         <v>0</v>
       </c>
@@ -3161,12 +3176,12 @@
       <c r="Q19" s="43"/>
       <c r="R19" s="43"/>
       <c r="S19" s="39" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="T19" s="39"/>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
-      <c r="W19" s="55"/>
+      <c r="W19" s="53"/>
       <c r="X19" s="43"/>
       <c r="Y19" s="43"/>
       <c r="Z19" s="43"/>
@@ -3175,7 +3190,7 @@
     </row>
     <row r="20" spans="1:28" customFormat="1" ht="92.25" x14ac:dyDescent="0.5">
       <c r="A20" s="43"/>
-      <c r="B20" s="53">
+      <c r="B20" s="51">
         <v>8</v>
       </c>
       <c r="C20" s="39" t="s">
@@ -3194,19 +3209,19 @@
       <c r="H20" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="45">
         <v>0</v>
       </c>
       <c r="J20" s="39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K20" s="38">
         <v>1</v>
       </c>
       <c r="L20" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="M20" s="43"/>
+        <v>247</v>
+      </c>
+      <c r="M20" s="53"/>
       <c r="N20" s="42">
         <v>0</v>
       </c>
@@ -3219,12 +3234,12 @@
       <c r="Q20" s="43"/>
       <c r="R20" s="43"/>
       <c r="S20" s="39" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="T20" s="39"/>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
-      <c r="W20" s="55"/>
+      <c r="W20" s="53"/>
       <c r="X20" s="43"/>
       <c r="Y20" s="43"/>
       <c r="Z20" s="43"/>
@@ -3233,7 +3248,7 @@
     </row>
     <row r="21" spans="1:28" customFormat="1" ht="45" x14ac:dyDescent="0.5">
       <c r="A21" s="43"/>
-      <c r="B21" s="53">
+      <c r="B21" s="51">
         <v>9</v>
       </c>
       <c r="C21" s="39" t="s">
@@ -3243,7 +3258,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F21" s="43" t="s">
         <v>112</v>
@@ -3254,7 +3269,7 @@
       <c r="H21" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="45">
         <v>1</v>
       </c>
       <c r="J21" s="39" t="s">
@@ -3264,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
+      <c r="M21" s="53"/>
       <c r="N21" s="42">
         <v>0</v>
       </c>
@@ -3277,14 +3292,14 @@
       <c r="Q21" s="43"/>
       <c r="R21" s="43"/>
       <c r="S21" s="39" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="T21" s="39"/>
       <c r="U21" s="43"/>
       <c r="V21" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="W21" s="55"/>
+      <c r="W21" s="53"/>
       <c r="X21" s="43"/>
       <c r="Y21" s="43"/>
       <c r="Z21" s="43"/>
@@ -3293,7 +3308,7 @@
     </row>
     <row r="22" spans="1:28" customFormat="1" ht="76.900000000000006" x14ac:dyDescent="0.5">
       <c r="A22" s="43"/>
-      <c r="B22" s="53">
+      <c r="B22" s="51">
         <v>10</v>
       </c>
       <c r="C22" s="39" t="s">
@@ -3302,7 +3317,7 @@
       <c r="D22" s="38">
         <v>5</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="52" t="s">
         <v>138</v>
       </c>
       <c r="F22" s="43" t="s">
@@ -3314,24 +3329,24 @@
       <c r="H22" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="45">
         <v>1</v>
       </c>
       <c r="J22" s="39" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K22" s="38">
         <v>1</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="M22" s="43"/>
+        <v>175</v>
+      </c>
+      <c r="M22" s="53"/>
       <c r="N22" s="42">
         <v>0</v>
       </c>
       <c r="O22" s="39" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P22" s="43">
         <v>6</v>
@@ -3339,14 +3354,14 @@
       <c r="Q22" s="43"/>
       <c r="R22" s="43"/>
       <c r="S22" s="39" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="T22" s="39" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="U22" s="43"/>
       <c r="V22" s="38"/>
-      <c r="W22" s="55"/>
+      <c r="W22" s="53"/>
       <c r="X22" s="43"/>
       <c r="Y22" s="43"/>
       <c r="Z22" s="43"/>
@@ -3355,7 +3370,7 @@
     </row>
     <row r="23" spans="1:28" customFormat="1" ht="60" x14ac:dyDescent="0.5">
       <c r="A23" s="43"/>
-      <c r="B23" s="53">
+      <c r="B23" s="51">
         <v>11</v>
       </c>
       <c r="C23" s="39" t="s">
@@ -3374,7 +3389,7 @@
       <c r="H23" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I23" s="46">
+      <c r="I23" s="45">
         <v>-1</v>
       </c>
       <c r="J23" s="39" t="s">
@@ -3384,12 +3399,12 @@
         <v>0</v>
       </c>
       <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
+      <c r="M23" s="53"/>
       <c r="N23" s="42">
         <v>0</v>
       </c>
       <c r="O23" s="39" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P23" s="43">
         <v>0</v>
@@ -3397,12 +3412,12 @@
       <c r="Q23" s="43"/>
       <c r="R23" s="43"/>
       <c r="S23" s="39" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T23" s="39"/>
       <c r="U23" s="43"/>
       <c r="V23" s="43"/>
-      <c r="W23" s="55"/>
+      <c r="W23" s="53"/>
       <c r="X23" s="43"/>
       <c r="Y23" s="43"/>
       <c r="Z23" s="43"/>
@@ -3411,7 +3426,7 @@
     </row>
     <row r="24" spans="1:28" customFormat="1" ht="45" x14ac:dyDescent="0.5">
       <c r="A24" s="43"/>
-      <c r="B24" s="53">
+      <c r="B24" s="51">
         <v>12</v>
       </c>
       <c r="C24" s="39" t="s">
@@ -3430,7 +3445,7 @@
       <c r="H24" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I24" s="45">
         <v>0</v>
       </c>
       <c r="J24" s="39" t="s">
@@ -3440,16 +3455,16 @@
         <v>1</v>
       </c>
       <c r="L24" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="M24" s="50">
-        <v>44713</v>
+        <v>175</v>
+      </c>
+      <c r="M24" s="53" t="s">
+        <v>291</v>
       </c>
       <c r="N24" s="42">
         <v>0</v>
       </c>
       <c r="O24" s="39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P24" s="43">
         <v>6</v>
@@ -3457,14 +3472,14 @@
       <c r="Q24" s="43"/>
       <c r="R24" s="43"/>
       <c r="S24" s="39" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="T24" s="39"/>
       <c r="U24" s="43"/>
       <c r="V24" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="W24" s="55"/>
+      <c r="W24" s="53"/>
       <c r="X24" s="43"/>
       <c r="Y24" s="43"/>
       <c r="Z24" s="43"/>
@@ -3473,10 +3488,10 @@
     </row>
     <row r="25" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A25" s="43"/>
-      <c r="B25" s="53">
+      <c r="B25" s="51">
         <v>13</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="49" t="s">
         <v>90</v>
       </c>
       <c r="D25" s="38">
@@ -3492,7 +3507,7 @@
       <c r="H25" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="46">
+      <c r="I25" s="45">
         <v>1</v>
       </c>
       <c r="J25" s="39" t="s">
@@ -3502,25 +3517,25 @@
         <v>1</v>
       </c>
       <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
+      <c r="M25" s="53"/>
       <c r="N25" s="42">
         <v>1</v>
       </c>
       <c r="O25" s="39" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P25" s="43">
         <v>6</v>
       </c>
       <c r="Q25" s="43"/>
       <c r="R25" s="43"/>
-      <c r="S25" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="T25" s="51"/>
+      <c r="S25" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="T25" s="49"/>
       <c r="U25" s="43"/>
       <c r="V25" s="43"/>
-      <c r="W25" s="55"/>
+      <c r="W25" s="53"/>
       <c r="X25" s="43"/>
       <c r="Y25" s="43"/>
       <c r="Z25" s="43"/>
@@ -3529,7 +3544,7 @@
     </row>
     <row r="26" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A26" s="43"/>
-      <c r="B26" s="53">
+      <c r="B26" s="51">
         <v>14</v>
       </c>
       <c r="C26" s="39" t="s">
@@ -3548,17 +3563,17 @@
       <c r="H26" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I26" s="46">
+      <c r="I26" s="45">
         <v>1</v>
       </c>
       <c r="J26" s="39" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K26" s="38">
         <v>1</v>
       </c>
       <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
+      <c r="M26" s="53"/>
       <c r="N26" s="42">
         <v>0</v>
       </c>
@@ -3570,13 +3585,13 @@
       </c>
       <c r="Q26" s="43"/>
       <c r="R26" s="43"/>
-      <c r="S26" s="51" t="s">
-        <v>175</v>
+      <c r="S26" s="49" t="s">
+        <v>172</v>
       </c>
       <c r="T26" s="39"/>
       <c r="U26" s="43"/>
       <c r="V26" s="38"/>
-      <c r="W26" s="55"/>
+      <c r="W26" s="53"/>
       <c r="X26" s="43"/>
       <c r="Y26" s="43"/>
       <c r="Z26" s="43"/>
@@ -3585,7 +3600,7 @@
     </row>
     <row r="27" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A27" s="43"/>
-      <c r="B27" s="53">
+      <c r="B27" s="51">
         <v>15</v>
       </c>
       <c r="C27" s="39" t="s">
@@ -3604,7 +3619,7 @@
       <c r="H27" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="I27" s="46">
+      <c r="I27" s="45">
         <v>-1</v>
       </c>
       <c r="J27" s="39" t="s">
@@ -3614,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
+      <c r="M27" s="53"/>
       <c r="N27" s="42">
         <v>0</v>
       </c>
@@ -3626,13 +3641,13 @@
       </c>
       <c r="Q27" s="43"/>
       <c r="R27" s="43"/>
-      <c r="S27" s="51" t="s">
-        <v>167</v>
+      <c r="S27" s="49" t="s">
+        <v>164</v>
       </c>
       <c r="T27" s="39"/>
       <c r="U27" s="43"/>
       <c r="V27" s="43"/>
-      <c r="W27" s="55"/>
+      <c r="W27" s="53"/>
       <c r="X27" s="43"/>
       <c r="Y27" s="43"/>
       <c r="Z27" s="43"/>
@@ -3641,7 +3656,7 @@
     </row>
     <row r="28" spans="1:28" customFormat="1" ht="46.5" x14ac:dyDescent="0.5">
       <c r="A28" s="43"/>
-      <c r="B28" s="53">
+      <c r="B28" s="51">
         <v>16</v>
       </c>
       <c r="C28" s="39" t="s">
@@ -3660,7 +3675,7 @@
       <c r="H28" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="45">
         <v>1</v>
       </c>
       <c r="J28" s="39" t="s">
@@ -3670,27 +3685,27 @@
         <v>1</v>
       </c>
       <c r="L28" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="M28" s="43"/>
+        <v>247</v>
+      </c>
+      <c r="M28" s="53"/>
       <c r="N28" s="42">
         <v>0</v>
       </c>
       <c r="O28" s="39" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="P28" s="43">
         <v>1</v>
       </c>
       <c r="Q28" s="43"/>
       <c r="R28" s="43"/>
-      <c r="S28" s="51" t="s">
-        <v>256</v>
+      <c r="S28" s="49" t="s">
+        <v>251</v>
       </c>
       <c r="T28" s="39"/>
       <c r="U28" s="43"/>
       <c r="V28" s="43"/>
-      <c r="W28" s="55"/>
+      <c r="W28" s="53"/>
       <c r="X28" s="43"/>
       <c r="Y28" s="43"/>
       <c r="Z28" s="43">
@@ -3701,7 +3716,7 @@
     </row>
     <row r="29" spans="1:28" customFormat="1" ht="45" x14ac:dyDescent="0.5">
       <c r="A29" s="43"/>
-      <c r="B29" s="53">
+      <c r="B29" s="51">
         <v>17</v>
       </c>
       <c r="C29" s="39" t="s">
@@ -3720,7 +3735,7 @@
       <c r="H29" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="I29" s="46">
+      <c r="I29" s="45">
         <v>1</v>
       </c>
       <c r="J29" s="39" t="s">
@@ -3730,12 +3745,12 @@
         <v>0</v>
       </c>
       <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
+      <c r="M29" s="53"/>
       <c r="N29" s="42">
         <v>0</v>
       </c>
       <c r="O29" s="39" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P29" s="43">
         <v>6</v>
@@ -3743,14 +3758,14 @@
       <c r="Q29" s="43"/>
       <c r="R29" s="43"/>
       <c r="S29" s="39" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="T29" s="39" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="U29" s="43"/>
       <c r="V29" s="43"/>
-      <c r="W29" s="55"/>
+      <c r="W29" s="53"/>
       <c r="X29" s="43"/>
       <c r="Y29" s="43"/>
       <c r="Z29" s="43"/>
@@ -3759,7 +3774,7 @@
     </row>
     <row r="30" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A30" s="43"/>
-      <c r="B30" s="53">
+      <c r="B30" s="51">
         <v>18</v>
       </c>
       <c r="C30" s="39" t="s">
@@ -3778,22 +3793,22 @@
       <c r="H30" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="I30" s="46">
+      <c r="I30" s="45">
         <v>-1</v>
       </c>
       <c r="J30" s="39" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K30" s="38">
         <v>0</v>
       </c>
       <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
+      <c r="M30" s="53"/>
       <c r="N30" s="42">
         <v>0</v>
       </c>
       <c r="O30" s="39" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P30" s="43">
         <v>6</v>
@@ -3801,12 +3816,12 @@
       <c r="Q30" s="43"/>
       <c r="R30" s="43"/>
       <c r="S30" s="39" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="T30" s="39"/>
       <c r="U30" s="43"/>
       <c r="V30" s="43"/>
-      <c r="W30" s="55"/>
+      <c r="W30" s="53"/>
       <c r="X30" s="43"/>
       <c r="Y30" s="43"/>
       <c r="Z30" s="43"/>
@@ -3815,14 +3830,14 @@
     </row>
     <row r="31" spans="1:28" customFormat="1" ht="45" x14ac:dyDescent="0.5">
       <c r="A31" s="43"/>
-      <c r="B31" s="53">
+      <c r="B31" s="51">
         <v>19</v>
       </c>
       <c r="C31" s="39" t="s">
         <v>96</v>
       </c>
       <c r="D31" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="43" t="s">
@@ -3834,7 +3849,7 @@
       <c r="H31" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="I31" s="46">
+      <c r="I31" s="45">
         <v>1</v>
       </c>
       <c r="J31" s="39" t="s">
@@ -3844,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
+      <c r="M31" s="53"/>
       <c r="N31" s="42">
         <v>0</v>
       </c>
@@ -3857,14 +3872,14 @@
       <c r="Q31" s="43"/>
       <c r="R31" s="43"/>
       <c r="S31" s="39" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="T31" s="39"/>
       <c r="U31" s="43"/>
       <c r="V31" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="W31" s="55"/>
+      <c r="W31" s="53"/>
       <c r="X31" s="43"/>
       <c r="Y31" s="43"/>
       <c r="Z31" s="43"/>
@@ -3873,26 +3888,26 @@
     </row>
     <row r="32" spans="1:28" customFormat="1" ht="45" x14ac:dyDescent="0.5">
       <c r="A32" s="43"/>
-      <c r="B32" s="53">
+      <c r="B32" s="51">
         <v>20</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D32" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="43" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G32" s="43">
         <v>2</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="I32" s="46">
+        <v>180</v>
+      </c>
+      <c r="I32" s="45">
         <v>-1</v>
       </c>
       <c r="J32" s="39" t="s">
@@ -3902,14 +3917,14 @@
         <v>1</v>
       </c>
       <c r="L32" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="M32" s="43"/>
+        <v>222</v>
+      </c>
+      <c r="M32" s="53"/>
       <c r="N32" s="42">
         <v>0</v>
       </c>
       <c r="O32" s="39" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P32" s="43">
         <v>0</v>
@@ -3917,12 +3932,12 @@
       <c r="Q32" s="43"/>
       <c r="R32" s="43"/>
       <c r="S32" s="39" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="T32" s="39"/>
       <c r="U32" s="43"/>
       <c r="V32" s="43"/>
-      <c r="W32" s="55"/>
+      <c r="W32" s="53"/>
       <c r="X32" s="43"/>
       <c r="Y32" s="43"/>
       <c r="Z32" s="43">
@@ -3933,18 +3948,18 @@
     </row>
     <row r="33" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A33" s="43"/>
-      <c r="B33" s="53">
+      <c r="B33" s="51">
         <v>21</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D33" s="38">
         <v>0</v>
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="43" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G33" s="43">
         <v>2</v>
@@ -3952,22 +3967,22 @@
       <c r="H33" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="I33" s="46">
+      <c r="I33" s="45">
         <v>-1</v>
       </c>
       <c r="J33" s="39" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K33" s="38">
         <v>-1</v>
       </c>
       <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
+      <c r="M33" s="53"/>
       <c r="N33" s="42">
         <v>0</v>
       </c>
       <c r="O33" s="39" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P33" s="43">
         <v>0</v>
@@ -3978,7 +3993,7 @@
       <c r="T33" s="39"/>
       <c r="U33" s="43"/>
       <c r="V33" s="43"/>
-      <c r="W33" s="55"/>
+      <c r="W33" s="53"/>
       <c r="X33" s="43"/>
       <c r="Y33" s="43"/>
       <c r="Z33" s="43"/>
@@ -3987,18 +4002,16 @@
     </row>
     <row r="34" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A34" s="43"/>
-      <c r="B34" s="53">
+      <c r="B34" s="51">
         <v>22</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D34" s="38">
         <v>1</v>
       </c>
-      <c r="E34" s="43" t="s">
-        <v>198</v>
-      </c>
+      <c r="E34" s="43"/>
       <c r="F34" s="43" t="s">
         <v>115</v>
       </c>
@@ -4008,22 +4021,22 @@
       <c r="H34" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="I34" s="46">
+      <c r="I34" s="45">
         <v>-1</v>
       </c>
       <c r="J34" s="39" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K34" s="38">
         <v>-1</v>
       </c>
       <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
+      <c r="M34" s="53"/>
       <c r="N34" s="42">
         <v>0</v>
       </c>
       <c r="O34" s="39" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P34" s="43">
         <v>-1</v>
@@ -4034,7 +4047,7 @@
       <c r="T34" s="39"/>
       <c r="U34" s="43"/>
       <c r="V34" s="43"/>
-      <c r="W34" s="55"/>
+      <c r="W34" s="53"/>
       <c r="X34" s="43"/>
       <c r="Y34" s="43"/>
       <c r="Z34" s="43"/>
@@ -4043,14 +4056,14 @@
     </row>
     <row r="35" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A35" s="43"/>
-      <c r="B35" s="53">
+      <c r="B35" s="51">
         <v>23</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D35" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" s="43"/>
       <c r="F35" s="43" t="s">
@@ -4062,109 +4075,107 @@
       <c r="H35" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="I35" s="46">
+      <c r="I35" s="45">
         <v>-1</v>
       </c>
       <c r="J35" s="39" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K35" s="38">
         <v>-1</v>
       </c>
       <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
+      <c r="M35" s="53"/>
       <c r="N35" s="42">
         <v>0</v>
       </c>
       <c r="O35" s="39" t="s">
-        <v>146</v>
+        <v>293</v>
       </c>
       <c r="P35" s="43">
         <v>-1</v>
       </c>
       <c r="Q35" s="43"/>
       <c r="R35" s="43"/>
-      <c r="S35" s="43" t="s">
-        <v>212</v>
-      </c>
+      <c r="S35" s="43"/>
       <c r="T35" s="39"/>
       <c r="U35" s="43"/>
       <c r="V35" s="43"/>
-      <c r="W35" s="55"/>
+      <c r="W35" s="53"/>
       <c r="X35" s="43"/>
       <c r="Y35" s="43"/>
-      <c r="Z35" s="43">
-        <v>1</v>
-      </c>
+      <c r="Z35" s="43"/>
       <c r="AA35" s="43"/>
       <c r="AB35" s="43"/>
     </row>
-    <row r="36" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A36" s="43"/>
-      <c r="B36" s="53">
+      <c r="B36" s="51">
         <v>24</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="D36" s="38">
         <v>1</v>
       </c>
       <c r="E36" s="43"/>
       <c r="F36" s="43" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="G36" s="43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H36" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="I36" s="46">
+        <v>124</v>
+      </c>
+      <c r="I36" s="45">
         <v>-1</v>
       </c>
       <c r="J36" s="39" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="K36" s="38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
+      <c r="M36" s="53"/>
       <c r="N36" s="42">
         <v>0</v>
       </c>
       <c r="O36" s="39" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="P36" s="43">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Q36" s="43"/>
       <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
+      <c r="S36" s="43" t="s">
+        <v>208</v>
+      </c>
       <c r="T36" s="39"/>
       <c r="U36" s="43"/>
-      <c r="V36" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="W36" s="55"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="53"/>
       <c r="X36" s="43"/>
       <c r="Y36" s="43"/>
-      <c r="Z36" s="43"/>
+      <c r="Z36" s="43">
+        <v>1</v>
+      </c>
       <c r="AA36" s="43"/>
       <c r="AB36" s="43"/>
     </row>
     <row r="37" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A37" s="43"/>
-      <c r="B37" s="53">
+      <c r="B37" s="51">
         <v>25</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="43"/>
       <c r="F37" s="43" t="s">
@@ -4176,7 +4187,7 @@
       <c r="H37" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I37" s="46">
+      <c r="I37" s="45">
         <v>-1</v>
       </c>
       <c r="J37" s="39" t="s">
@@ -4186,12 +4197,12 @@
         <v>1</v>
       </c>
       <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
+      <c r="M37" s="53"/>
       <c r="N37" s="42">
         <v>0</v>
       </c>
       <c r="O37" s="39" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P37" s="43">
         <v>6</v>
@@ -4202,54 +4213,52 @@
       <c r="T37" s="39"/>
       <c r="U37" s="43"/>
       <c r="V37" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="W37" s="55"/>
+        <v>140</v>
+      </c>
+      <c r="W37" s="53"/>
       <c r="X37" s="43"/>
       <c r="Y37" s="43"/>
       <c r="Z37" s="43"/>
       <c r="AA37" s="43"/>
       <c r="AB37" s="43"/>
     </row>
-    <row r="38" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A38" s="43"/>
-      <c r="B38" s="53">
+      <c r="B38" s="51">
         <v>26</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>233</v>
+        <v>98</v>
       </c>
       <c r="D38" s="38">
-        <v>2</v>
-      </c>
-      <c r="E38" s="43" t="s">
-        <v>99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E38" s="43"/>
       <c r="F38" s="43" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="G38" s="43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="I38" s="46">
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="I38" s="45">
+        <v>-1</v>
       </c>
       <c r="J38" s="39" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K38" s="38">
         <v>1</v>
       </c>
       <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
+      <c r="M38" s="53"/>
       <c r="N38" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="39" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="P38" s="43">
         <v>6</v>
@@ -4259,8 +4268,10 @@
       <c r="S38" s="43"/>
       <c r="T38" s="39"/>
       <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="55"/>
+      <c r="V38" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="W38" s="53"/>
       <c r="X38" s="43"/>
       <c r="Y38" s="43"/>
       <c r="Z38" s="43"/>
@@ -4269,43 +4280,43 @@
     </row>
     <row r="39" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A39" s="43"/>
-      <c r="B39" s="53">
+      <c r="B39" s="51">
         <v>27</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="D39" s="38">
-        <v>3</v>
-      </c>
-      <c r="E39" s="43"/>
+        <v>2</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>99</v>
+      </c>
       <c r="F39" s="43" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G39" s="43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H39" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="I39" s="46">
+        <v>124</v>
+      </c>
+      <c r="I39" s="45">
         <v>0</v>
       </c>
       <c r="J39" s="39" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K39" s="38">
         <v>1</v>
       </c>
-      <c r="L39" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="M39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="53"/>
       <c r="N39" s="42">
         <v>1</v>
       </c>
       <c r="O39" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P39" s="43">
         <v>6</v>
@@ -4315,41 +4326,37 @@
       <c r="S39" s="43"/>
       <c r="T39" s="39"/>
       <c r="U39" s="43"/>
-      <c r="V39" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="W39" s="55"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="53"/>
       <c r="X39" s="43"/>
       <c r="Y39" s="43"/>
       <c r="Z39" s="43"/>
       <c r="AA39" s="43"/>
       <c r="AB39" s="43"/>
     </row>
-    <row r="40" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A40" s="43"/>
-      <c r="B40" s="53">
+      <c r="B40" s="51">
         <v>28</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40" s="38">
-        <v>0</v>
-      </c>
-      <c r="E40" s="43" t="s">
-        <v>117</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E40" s="43"/>
       <c r="F40" s="43" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="G40" s="43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="I40" s="46">
-        <v>1</v>
+        <v>231</v>
+      </c>
+      <c r="I40" s="45">
+        <v>0</v>
       </c>
       <c r="J40" s="39" t="s">
         <v>49</v>
@@ -4357,13 +4364,15 @@
       <c r="K40" s="38">
         <v>1</v>
       </c>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
+      <c r="L40" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="M40" s="53"/>
       <c r="N40" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P40" s="43">
         <v>6</v>
@@ -4374,54 +4383,54 @@
       <c r="T40" s="39"/>
       <c r="U40" s="43"/>
       <c r="V40" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="W40" s="55"/>
+        <v>285</v>
+      </c>
+      <c r="W40" s="53"/>
       <c r="X40" s="43"/>
       <c r="Y40" s="43"/>
       <c r="Z40" s="43"/>
       <c r="AA40" s="43"/>
       <c r="AB40" s="43"/>
     </row>
-    <row r="41" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A41" s="43"/>
-      <c r="B41" s="53">
+      <c r="B41" s="51">
         <v>29</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D41" s="38">
         <v>0</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="G41" s="43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H41" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I41" s="46">
-        <v>0</v>
+      <c r="I41" s="45">
+        <v>1</v>
       </c>
       <c r="J41" s="39" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K41" s="38">
         <v>1</v>
       </c>
       <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
+      <c r="M41" s="53"/>
       <c r="N41" s="42">
         <v>0</v>
       </c>
       <c r="O41" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P41" s="43">
         <v>6</v>
@@ -4432,9 +4441,9 @@
       <c r="T41" s="39"/>
       <c r="U41" s="43"/>
       <c r="V41" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="W41" s="55"/>
+        <v>140</v>
+      </c>
+      <c r="W41" s="53"/>
       <c r="X41" s="43"/>
       <c r="Y41" s="43"/>
       <c r="Z41" s="43"/>
@@ -4443,41 +4452,43 @@
     </row>
     <row r="42" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A42" s="43"/>
-      <c r="B42" s="53">
+      <c r="B42" s="51">
         <v>30</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D42" s="38">
         <v>0</v>
       </c>
-      <c r="E42" s="43"/>
+      <c r="E42" s="43" t="s">
+        <v>144</v>
+      </c>
       <c r="F42" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G42" s="43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H42" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I42" s="46">
-        <v>1</v>
+      <c r="I42" s="45">
+        <v>0</v>
       </c>
       <c r="J42" s="39" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K42" s="38">
         <v>1</v>
       </c>
       <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
+      <c r="M42" s="53"/>
       <c r="N42" s="42">
         <v>0</v>
       </c>
       <c r="O42" s="39" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="P42" s="43">
         <v>6</v>
@@ -4487,8 +4498,10 @@
       <c r="S42" s="43"/>
       <c r="T42" s="39"/>
       <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="55"/>
+      <c r="V42" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="W42" s="53"/>
       <c r="X42" s="43"/>
       <c r="Y42" s="43"/>
       <c r="Z42" s="43"/>
@@ -4497,44 +4510,44 @@
     </row>
     <row r="43" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A43" s="43"/>
-      <c r="B43" s="53">
+      <c r="B43" s="51">
         <v>31</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D43" s="38">
         <v>0</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G43" s="43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="I43" s="46">
+        <v>122</v>
+      </c>
+      <c r="I43" s="45">
         <v>1</v>
       </c>
       <c r="J43" s="39" t="s">
-        <v>245</v>
+        <v>49</v>
       </c>
       <c r="K43" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
+      <c r="M43" s="53"/>
       <c r="N43" s="42">
         <v>0</v>
       </c>
       <c r="O43" s="39" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P43" s="43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q43" s="43"/>
       <c r="R43" s="43"/>
@@ -4542,7 +4555,7 @@
       <c r="T43" s="39"/>
       <c r="U43" s="43"/>
       <c r="V43" s="43"/>
-      <c r="W43" s="55"/>
+      <c r="W43" s="53"/>
       <c r="X43" s="43"/>
       <c r="Y43" s="43"/>
       <c r="Z43" s="43"/>
@@ -4551,42 +4564,44 @@
     </row>
     <row r="44" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A44" s="43"/>
-      <c r="B44" s="53">
+      <c r="B44" s="51">
         <v>32</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="D44" s="38">
         <v>0</v>
       </c>
       <c r="E44" s="43"/>
       <c r="F44" s="43" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="G44" s="43">
+        <v>5</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" s="45">
         <v>1</v>
       </c>
-      <c r="H44" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="I44" s="46">
-        <v>-1</v>
-      </c>
       <c r="J44" s="39" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="K44" s="38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="42"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="42">
+        <v>0</v>
+      </c>
       <c r="O44" s="39" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="P44" s="43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="43"/>
       <c r="R44" s="43"/>
@@ -4594,167 +4609,161 @@
       <c r="T44" s="39"/>
       <c r="U44" s="43"/>
       <c r="V44" s="43"/>
-      <c r="W44" s="55" t="s">
-        <v>194</v>
-      </c>
+      <c r="W44" s="53"/>
       <c r="X44" s="43"/>
       <c r="Y44" s="43"/>
       <c r="Z44" s="43"/>
       <c r="AA44" s="43"/>
       <c r="AB44" s="43"/>
     </row>
-    <row r="45" spans="1:28" customFormat="1" ht="75" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A45" s="43"/>
-      <c r="B45" s="53">
+      <c r="B45" s="51">
         <v>33</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D45" s="38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E45" s="43"/>
       <c r="F45" s="43" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G45" s="43">
-        <v>2</v>
-      </c>
-      <c r="H45" s="39"/>
-      <c r="I45" s="46">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="I45" s="45">
+        <v>-1</v>
       </c>
       <c r="J45" s="39" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="K45" s="38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
+      <c r="M45" s="53"/>
       <c r="N45" s="42"/>
       <c r="O45" s="39" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P45" s="43">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Q45" s="43"/>
       <c r="R45" s="43"/>
       <c r="S45" s="43"/>
-      <c r="T45" s="39" t="s">
-        <v>201</v>
-      </c>
+      <c r="T45" s="39"/>
       <c r="U45" s="43"/>
-      <c r="V45" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="W45" s="55"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="53" t="s">
+        <v>191</v>
+      </c>
       <c r="X45" s="43"/>
       <c r="Y45" s="43"/>
       <c r="Z45" s="43"/>
       <c r="AA45" s="43"/>
       <c r="AB45" s="43"/>
     </row>
-    <row r="46" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:28" customFormat="1" ht="75" x14ac:dyDescent="0.5">
       <c r="A46" s="43"/>
-      <c r="B46" s="53">
+      <c r="B46" s="51">
         <v>34</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="D46" s="38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" s="43"/>
       <c r="F46" s="43" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="G46" s="43">
-        <v>3</v>
-      </c>
-      <c r="H46" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="I46" s="46">
+        <v>2</v>
+      </c>
+      <c r="H46" s="39"/>
+      <c r="I46" s="45">
         <v>0</v>
       </c>
       <c r="J46" s="39" t="s">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c r="K46" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="42">
-        <v>0</v>
-      </c>
+      <c r="M46" s="53"/>
+      <c r="N46" s="42"/>
       <c r="O46" s="39" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="P46" s="43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q46" s="43"/>
       <c r="R46" s="43"/>
       <c r="S46" s="43"/>
-      <c r="T46" s="39"/>
+      <c r="T46" s="39" t="s">
+        <v>197</v>
+      </c>
       <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="55" t="s">
-        <v>213</v>
-      </c>
+      <c r="V46" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="W46" s="53"/>
       <c r="X46" s="43"/>
       <c r="Y46" s="43"/>
-      <c r="Z46" s="43">
-        <v>1</v>
-      </c>
+      <c r="Z46" s="43"/>
       <c r="AA46" s="43"/>
       <c r="AB46" s="43"/>
     </row>
     <row r="47" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A47" s="43"/>
-      <c r="B47" s="53">
+      <c r="B47" s="51">
         <v>35</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D47" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="43"/>
       <c r="F47" s="43" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G47" s="43">
         <v>3</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="I47" s="46">
-        <v>-1</v>
+        <v>214</v>
+      </c>
+      <c r="I47" s="45">
+        <v>0</v>
       </c>
       <c r="J47" s="39" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="K47" s="38">
         <v>0</v>
       </c>
       <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
+      <c r="M47" s="53"/>
       <c r="N47" s="42">
         <v>0</v>
       </c>
       <c r="O47" s="39" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P47" s="43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q47" s="43"/>
       <c r="R47" s="43"/>
@@ -4762,50 +4771,54 @@
       <c r="T47" s="39"/>
       <c r="U47" s="43"/>
       <c r="V47" s="43"/>
-      <c r="W47" s="55"/>
+      <c r="W47" s="53" t="s">
+        <v>209</v>
+      </c>
       <c r="X47" s="43"/>
       <c r="Y47" s="43"/>
-      <c r="Z47" s="43"/>
+      <c r="Z47" s="43">
+        <v>1</v>
+      </c>
       <c r="AA47" s="43"/>
       <c r="AB47" s="43"/>
     </row>
     <row r="48" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A48" s="43"/>
-      <c r="B48" s="53">
+      <c r="B48" s="51">
         <v>36</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D48" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="43"/>
       <c r="F48" s="43" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G48" s="43">
         <v>3</v>
       </c>
       <c r="H48" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="I48" s="46">
+        <v>214</v>
+      </c>
+      <c r="I48" s="45">
         <v>-1</v>
       </c>
       <c r="J48" s="39" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="K48" s="38">
         <v>0</v>
       </c>
       <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
+      <c r="M48" s="53"/>
       <c r="N48" s="42">
         <v>0</v>
       </c>
       <c r="O48" s="39" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P48" s="43">
         <v>0</v>
@@ -4816,187 +4829,181 @@
       <c r="T48" s="39"/>
       <c r="U48" s="43"/>
       <c r="V48" s="43"/>
-      <c r="W48" s="55"/>
+      <c r="W48" s="53"/>
       <c r="X48" s="43"/>
       <c r="Y48" s="43"/>
       <c r="Z48" s="43"/>
       <c r="AA48" s="43"/>
       <c r="AB48" s="43"/>
     </row>
-    <row r="49" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A49" s="43"/>
-      <c r="B49" s="53">
+      <c r="B49" s="51">
         <v>37</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D49" s="38">
-        <v>4</v>
-      </c>
-      <c r="E49" s="43" t="s">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E49" s="43"/>
       <c r="F49" s="43" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="G49" s="43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="I49" s="46">
-        <v>1</v>
+        <v>214</v>
+      </c>
+      <c r="I49" s="45">
+        <v>-1</v>
       </c>
       <c r="J49" s="39" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="K49" s="38">
         <v>0</v>
       </c>
       <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
+      <c r="M49" s="53"/>
       <c r="N49" s="42">
         <v>0</v>
       </c>
       <c r="O49" s="39" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="P49" s="43">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="43"/>
       <c r="R49" s="43"/>
       <c r="S49" s="43"/>
-      <c r="T49" s="39" t="s">
-        <v>228</v>
-      </c>
+      <c r="T49" s="39"/>
       <c r="U49" s="43"/>
-      <c r="V49" s="60">
-        <v>45047</v>
-      </c>
-      <c r="W49" s="55"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="53"/>
       <c r="X49" s="43"/>
       <c r="Y49" s="43"/>
       <c r="Z49" s="43"/>
       <c r="AA49" s="43"/>
       <c r="AB49" s="43"/>
     </row>
-    <row r="50" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A50" s="43"/>
-      <c r="B50" s="53">
+      <c r="B50" s="51">
         <v>38</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D50" s="38">
-        <v>1</v>
-      </c>
-      <c r="E50" s="43"/>
+        <v>4</v>
+      </c>
+      <c r="E50" s="43" t="s">
+        <v>202</v>
+      </c>
       <c r="F50" s="43" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G50" s="43">
         <v>2</v>
       </c>
       <c r="H50" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="I50" s="46">
+        <v>232</v>
+      </c>
+      <c r="I50" s="45">
         <v>1</v>
       </c>
       <c r="J50" s="39" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="K50" s="38">
-        <v>1</v>
-      </c>
-      <c r="L50" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="M50" s="43"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="43"/>
+      <c r="M50" s="53"/>
       <c r="N50" s="42">
         <v>0</v>
       </c>
       <c r="O50" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P50" s="43">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q50" s="43"/>
       <c r="R50" s="43"/>
-      <c r="S50" s="43" t="s">
-        <v>229</v>
-      </c>
+      <c r="S50" s="43"/>
       <c r="T50" s="39" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="55"/>
+      <c r="V50" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="W50" s="53"/>
       <c r="X50" s="43"/>
       <c r="Y50" s="43"/>
       <c r="Z50" s="43"/>
       <c r="AA50" s="43"/>
       <c r="AB50" s="43"/>
     </row>
-    <row r="51" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A51" s="43"/>
-      <c r="B51" s="53">
+      <c r="B51" s="51">
         <v>39</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="D51" s="38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E51" s="43"/>
       <c r="F51" s="43" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="G51" s="43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H51" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="I51" s="46">
-        <v>0</v>
+        <v>214</v>
+      </c>
+      <c r="I51" s="45">
+        <v>1</v>
       </c>
       <c r="J51" s="39" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="K51" s="38">
-        <v>0</v>
-      </c>
-      <c r="L51" s="43"/>
-      <c r="M51" s="50">
-        <v>45108</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L51" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="M51" s="53"/>
       <c r="N51" s="42">
         <v>0</v>
       </c>
       <c r="O51" s="39" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="P51" s="43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q51" s="43"/>
       <c r="R51" s="43"/>
       <c r="S51" s="43" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="T51" s="39" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="U51" s="43"/>
       <c r="V51" s="43"/>
-      <c r="W51" s="55"/>
+      <c r="W51" s="53"/>
       <c r="X51" s="43"/>
       <c r="Y51" s="43"/>
       <c r="Z51" s="43"/>
@@ -5005,43 +5012,43 @@
     </row>
     <row r="52" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A52" s="43"/>
-      <c r="B52" s="53">
+      <c r="B52" s="51">
         <v>40</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D52" s="38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E52" s="43"/>
       <c r="F52" s="43" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G52" s="43">
         <v>4</v>
       </c>
       <c r="H52" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="I52" s="46">
+        <v>232</v>
+      </c>
+      <c r="I52" s="45">
         <v>0</v>
       </c>
       <c r="J52" s="39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K52" s="38">
         <v>0</v>
       </c>
       <c r="L52" s="43"/>
-      <c r="M52" s="50">
-        <v>45108</v>
+      <c r="M52" s="53" t="s">
+        <v>289</v>
       </c>
       <c r="N52" s="42">
         <v>0</v>
       </c>
       <c r="O52" s="39" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="P52" s="43">
         <v>6</v>
@@ -5049,59 +5056,59 @@
       <c r="Q52" s="43"/>
       <c r="R52" s="43"/>
       <c r="S52" s="43" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="T52" s="39" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="U52" s="43"/>
       <c r="V52" s="43"/>
-      <c r="W52" s="55"/>
+      <c r="W52" s="53"/>
       <c r="X52" s="43"/>
       <c r="Y52" s="43"/>
       <c r="Z52" s="43"/>
       <c r="AA52" s="43"/>
       <c r="AB52" s="43"/>
     </row>
-    <row r="53" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A53" s="43"/>
-      <c r="B53" s="53">
+      <c r="B53" s="51">
         <v>41</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D53" s="38">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E53" s="43"/>
       <c r="F53" s="43" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G53" s="43">
         <v>4</v>
       </c>
       <c r="H53" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="I53" s="46">
+        <v>232</v>
+      </c>
+      <c r="I53" s="45">
         <v>0</v>
       </c>
       <c r="J53" s="39" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="K53" s="38">
         <v>0</v>
       </c>
       <c r="L53" s="43"/>
-      <c r="M53" s="50">
-        <v>45108</v>
+      <c r="M53" s="53" t="s">
+        <v>289</v>
       </c>
       <c r="N53" s="42">
         <v>0</v>
       </c>
       <c r="O53" s="39" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P53" s="43">
         <v>6</v>
@@ -5109,295 +5116,299 @@
       <c r="Q53" s="43"/>
       <c r="R53" s="43"/>
       <c r="S53" s="43" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="T53" s="39" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="U53" s="43"/>
-      <c r="V53" s="60">
-        <v>45191</v>
-      </c>
-      <c r="W53" s="55"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="53"/>
       <c r="X53" s="43"/>
       <c r="Y53" s="43"/>
       <c r="Z53" s="43"/>
       <c r="AA53" s="43"/>
       <c r="AB53" s="43"/>
     </row>
-    <row r="54" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A54" s="43"/>
-      <c r="B54" s="53">
+      <c r="B54" s="51">
         <v>42</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D54" s="38">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E54" s="43"/>
       <c r="F54" s="43" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="G54" s="43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H54" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="I54" s="46">
+        <v>232</v>
+      </c>
+      <c r="I54" s="45">
         <v>0</v>
       </c>
       <c r="J54" s="39" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="K54" s="38">
-        <v>1</v>
-      </c>
-      <c r="L54" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="M54" s="50">
-        <v>45078</v>
+        <v>0</v>
+      </c>
+      <c r="L54" s="43"/>
+      <c r="M54" s="53" t="s">
+        <v>289</v>
       </c>
       <c r="N54" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" s="39" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="P54" s="43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q54" s="43"/>
       <c r="R54" s="43"/>
       <c r="S54" s="43" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="T54" s="39" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="55"/>
+      <c r="V54" s="73" t="s">
+        <v>288</v>
+      </c>
+      <c r="W54" s="53"/>
       <c r="X54" s="43"/>
       <c r="Y54" s="43"/>
       <c r="Z54" s="43"/>
       <c r="AA54" s="43"/>
       <c r="AB54" s="43"/>
     </row>
-    <row r="55" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A55" s="43"/>
-      <c r="B55" s="53">
+      <c r="B55" s="51">
         <v>43</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D55" s="38">
         <v>2</v>
       </c>
       <c r="E55" s="43"/>
       <c r="F55" s="43" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G55" s="43">
         <v>2</v>
       </c>
       <c r="H55" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="I55" s="46">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="I55" s="45">
+        <v>0</v>
       </c>
       <c r="J55" s="39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K55" s="38">
         <v>1</v>
       </c>
       <c r="L55" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="M55" s="50">
-        <v>45078</v>
+        <v>247</v>
+      </c>
+      <c r="M55" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="N55" s="42">
         <v>1</v>
       </c>
       <c r="O55" s="39" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="P55" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="43"/>
       <c r="R55" s="43"/>
       <c r="S55" s="43" t="s">
-        <v>263</v>
-      </c>
-      <c r="T55" s="39"/>
+        <v>254</v>
+      </c>
+      <c r="T55" s="39" t="s">
+        <v>255</v>
+      </c>
       <c r="U55" s="43"/>
       <c r="V55" s="43"/>
-      <c r="W55" s="55"/>
+      <c r="W55" s="53"/>
       <c r="X55" s="43"/>
       <c r="Y55" s="43"/>
       <c r="Z55" s="43"/>
       <c r="AA55" s="43"/>
       <c r="AB55" s="43"/>
     </row>
-    <row r="56" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A56" s="43"/>
-      <c r="B56" s="53">
+      <c r="B56" s="51">
         <v>44</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D56" s="38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56" s="43"/>
       <c r="F56" s="43" t="s">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="G56" s="43">
         <v>2</v>
       </c>
       <c r="H56" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="I56" s="46">
+        <v>232</v>
+      </c>
+      <c r="I56" s="45">
         <v>1</v>
       </c>
       <c r="J56" s="39" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="K56" s="38">
-        <v>0</v>
-      </c>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43"/>
+        <v>1</v>
+      </c>
+      <c r="L56" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="M56" s="53" t="s">
+        <v>290</v>
+      </c>
       <c r="N56" s="42">
         <v>1</v>
       </c>
       <c r="O56" s="39" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="P56" s="43">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="43"/>
       <c r="R56" s="43"/>
       <c r="S56" s="43" t="s">
-        <v>267</v>
-      </c>
-      <c r="T56" s="39" t="s">
-        <v>266</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="T56" s="39"/>
       <c r="U56" s="43"/>
       <c r="V56" s="43"/>
-      <c r="W56" s="55"/>
+      <c r="W56" s="53"/>
       <c r="X56" s="43"/>
       <c r="Y56" s="43"/>
       <c r="Z56" s="43"/>
       <c r="AA56" s="43"/>
       <c r="AB56" s="43"/>
     </row>
-    <row r="57" spans="1:28" customFormat="1" ht="60" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A57" s="43"/>
-      <c r="B57" s="53">
+      <c r="B57" s="51">
         <v>45</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D57" s="38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" s="43"/>
       <c r="F57" s="43" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G57" s="43">
         <v>2</v>
       </c>
       <c r="H57" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="I57" s="46">
+        <v>232</v>
+      </c>
+      <c r="I57" s="45">
         <v>1</v>
       </c>
       <c r="J57" s="39" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="K57" s="38">
         <v>0</v>
       </c>
       <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
+      <c r="M57" s="53"/>
       <c r="N57" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" s="39" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="P57" s="43">
         <v>6</v>
       </c>
       <c r="Q57" s="43"/>
       <c r="R57" s="43"/>
-      <c r="S57" s="43"/>
+      <c r="S57" s="43" t="s">
+        <v>262</v>
+      </c>
       <c r="T57" s="39" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="U57" s="43"/>
       <c r="V57" s="43"/>
-      <c r="W57" s="55"/>
+      <c r="W57" s="53"/>
       <c r="X57" s="43"/>
       <c r="Y57" s="43"/>
       <c r="Z57" s="43"/>
       <c r="AA57" s="43"/>
       <c r="AB57" s="43"/>
     </row>
-    <row r="58" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:28" customFormat="1" ht="60" x14ac:dyDescent="0.5">
       <c r="A58" s="43"/>
-      <c r="B58" s="53">
+      <c r="B58" s="51">
         <v>46</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D58" s="38">
         <v>2</v>
       </c>
       <c r="E58" s="43"/>
       <c r="F58" s="43" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="G58" s="43">
         <v>2</v>
       </c>
       <c r="H58" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="I58" s="46">
+        <v>232</v>
+      </c>
+      <c r="I58" s="45">
         <v>1</v>
       </c>
       <c r="J58" s="39" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="K58" s="38">
         <v>0</v>
       </c>
       <c r="L58" s="43"/>
-      <c r="M58" s="43"/>
+      <c r="M58" s="53"/>
       <c r="N58" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" s="39" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P58" s="43">
         <v>6</v>
@@ -5406,11 +5417,11 @@
       <c r="R58" s="43"/>
       <c r="S58" s="43"/>
       <c r="T58" s="39" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="U58" s="43"/>
       <c r="V58" s="43"/>
-      <c r="W58" s="55"/>
+      <c r="W58" s="53"/>
       <c r="X58" s="43"/>
       <c r="Y58" s="43"/>
       <c r="Z58" s="43"/>
@@ -5419,41 +5430,41 @@
     </row>
     <row r="59" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A59" s="43"/>
-      <c r="B59" s="53">
+      <c r="B59" s="51">
         <v>47</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D59" s="38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E59" s="43"/>
       <c r="F59" s="43" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G59" s="43">
         <v>2</v>
       </c>
       <c r="H59" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="I59" s="46">
+        <v>232</v>
+      </c>
+      <c r="I59" s="45">
         <v>1</v>
       </c>
       <c r="J59" s="39" t="s">
         <v>43</v>
       </c>
       <c r="K59" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
+      <c r="M59" s="53"/>
       <c r="N59" s="42">
         <v>1</v>
       </c>
       <c r="O59" s="39" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="P59" s="43">
         <v>6</v>
@@ -5462,69 +5473,67 @@
       <c r="R59" s="43"/>
       <c r="S59" s="43"/>
       <c r="T59" s="39" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="U59" s="43"/>
       <c r="V59" s="43"/>
-      <c r="W59" s="55"/>
+      <c r="W59" s="53"/>
       <c r="X59" s="43"/>
       <c r="Y59" s="43"/>
       <c r="Z59" s="43"/>
       <c r="AA59" s="43"/>
       <c r="AB59" s="43"/>
     </row>
-    <row r="60" spans="1:28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A60" s="43"/>
-      <c r="B60" s="53">
+      <c r="B60" s="51">
         <v>48</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D60" s="38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E60" s="43"/>
       <c r="F60" s="43" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G60" s="43">
         <v>2</v>
       </c>
       <c r="H60" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="I60" s="46">
+        <v>214</v>
+      </c>
+      <c r="I60" s="45">
         <v>1</v>
       </c>
       <c r="J60" s="39" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="K60" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="43"/>
-      <c r="M60" s="43"/>
+      <c r="M60" s="53"/>
       <c r="N60" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" s="39" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="P60" s="43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q60" s="43"/>
       <c r="R60" s="43"/>
-      <c r="S60" s="43" t="s">
-        <v>285</v>
-      </c>
+      <c r="S60" s="43"/>
       <c r="T60" s="39" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="U60" s="43"/>
       <c r="V60" s="43"/>
-      <c r="W60" s="55"/>
+      <c r="W60" s="53"/>
       <c r="X60" s="43"/>
       <c r="Y60" s="43"/>
       <c r="Z60" s="43"/>
@@ -5533,198 +5542,226 @@
     </row>
     <row r="61" spans="1:28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A61" s="43"/>
-      <c r="B61" s="53">
+      <c r="B61" s="51">
         <v>49</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D61" s="38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E61" s="43"/>
       <c r="F61" s="43" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="G61" s="43">
+        <v>2</v>
+      </c>
+      <c r="H61" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="I61" s="45">
         <v>1</v>
       </c>
-      <c r="H61" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="I61" s="46">
-        <v>0</v>
-      </c>
       <c r="J61" s="39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K61" s="38">
+        <v>0</v>
+      </c>
+      <c r="L61" s="43"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="42">
+        <v>0</v>
+      </c>
+      <c r="O61" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="P61" s="43">
         <v>1</v>
-      </c>
-      <c r="L61" s="43"/>
-      <c r="M61" s="43"/>
-      <c r="N61" s="42">
-        <v>1</v>
-      </c>
-      <c r="O61" s="39" t="s">
-        <v>280</v>
-      </c>
-      <c r="P61" s="43">
-        <v>6</v>
       </c>
       <c r="Q61" s="43"/>
       <c r="R61" s="43"/>
       <c r="S61" s="43" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="T61" s="39" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="U61" s="43"/>
       <c r="V61" s="43"/>
-      <c r="W61" s="55"/>
+      <c r="W61" s="53"/>
       <c r="X61" s="43"/>
       <c r="Y61" s="43"/>
       <c r="Z61" s="43"/>
       <c r="AA61" s="43"/>
       <c r="AB61" s="43"/>
     </row>
-    <row r="62" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A62" s="43"/>
-      <c r="B62" s="53">
+      <c r="B62" s="51">
         <v>50</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D62" s="38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E62" s="43"/>
       <c r="F62" s="43" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="G62" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="I62" s="46">
+        <v>232</v>
+      </c>
+      <c r="I62" s="45">
         <v>0</v>
       </c>
       <c r="J62" s="39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K62" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="43"/>
-      <c r="M62" s="43"/>
+      <c r="M62" s="53"/>
       <c r="N62" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" s="39" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="P62" s="43">
         <v>6</v>
       </c>
       <c r="Q62" s="43"/>
       <c r="R62" s="43"/>
-      <c r="S62" s="43"/>
+      <c r="S62" s="43" t="s">
+        <v>277</v>
+      </c>
       <c r="T62" s="39" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="U62" s="43"/>
       <c r="V62" s="43"/>
-      <c r="W62" s="55"/>
+      <c r="W62" s="53"/>
       <c r="X62" s="43"/>
       <c r="Y62" s="43"/>
-      <c r="Z62" s="43">
-        <v>1</v>
-      </c>
+      <c r="Z62" s="43"/>
       <c r="AA62" s="43"/>
       <c r="AB62" s="43"/>
     </row>
-    <row r="63" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="A63" s="43"/>
-      <c r="B63" s="53">
+      <c r="B63" s="51">
         <v>51</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>105</v>
+        <v>273</v>
       </c>
       <c r="D63" s="38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E63" s="43"/>
       <c r="F63" s="43" t="s">
-        <v>121</v>
+        <v>281</v>
       </c>
       <c r="G63" s="43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H63" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="I63" s="46">
+        <v>232</v>
+      </c>
+      <c r="I63" s="45">
         <v>0</v>
       </c>
       <c r="J63" s="39" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="K63" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="43"/>
-      <c r="M63" s="43"/>
+      <c r="M63" s="53"/>
       <c r="N63" s="42">
         <v>0</v>
       </c>
       <c r="O63" s="39" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="P63" s="43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q63" s="43"/>
       <c r="R63" s="43"/>
       <c r="S63" s="43"/>
-      <c r="T63" s="39"/>
+      <c r="T63" s="39" t="s">
+        <v>283</v>
+      </c>
       <c r="U63" s="43"/>
       <c r="V63" s="43"/>
-      <c r="W63" s="55"/>
+      <c r="W63" s="53"/>
       <c r="X63" s="43"/>
       <c r="Y63" s="43"/>
-      <c r="Z63" s="43"/>
+      <c r="Z63" s="43">
+        <v>1</v>
+      </c>
       <c r="AA63" s="43"/>
       <c r="AB63" s="43"/>
     </row>
-    <row r="64" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
+      <c r="B64" s="51">
+        <v>52</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="38">
+        <v>1</v>
+      </c>
       <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
+      <c r="F64" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="G64" s="43">
+        <v>5</v>
+      </c>
+      <c r="H64" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="I64" s="45">
+        <v>0</v>
+      </c>
+      <c r="J64" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="K64" s="38">
+        <v>1</v>
+      </c>
       <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="42">
+        <v>0</v>
+      </c>
+      <c r="O64" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="P64" s="43">
+        <v>5</v>
+      </c>
       <c r="Q64" s="43"/>
       <c r="R64" s="43"/>
       <c r="S64" s="43"/>
-      <c r="T64" s="43"/>
+      <c r="T64" s="39"/>
       <c r="U64" s="43"/>
       <c r="V64" s="43"/>
-      <c r="W64" s="43"/>
+      <c r="W64" s="53"/>
       <c r="X64" s="43"/>
       <c r="Y64" s="43"/>
       <c r="Z64" s="43"/>
@@ -5751,10 +5788,10 @@
       <c r="Q65" s="43"/>
       <c r="R65" s="43"/>
       <c r="S65" s="43"/>
-      <c r="T65" s="39"/>
+      <c r="T65" s="43"/>
       <c r="U65" s="43"/>
       <c r="V65" s="43"/>
-      <c r="W65" s="55"/>
+      <c r="W65" s="43"/>
       <c r="X65" s="43"/>
       <c r="Y65" s="43"/>
       <c r="Z65" s="43"/>
@@ -5784,7 +5821,7 @@
       <c r="T66" s="39"/>
       <c r="U66" s="43"/>
       <c r="V66" s="43"/>
-      <c r="W66" s="55"/>
+      <c r="W66" s="53"/>
       <c r="X66" s="43"/>
       <c r="Y66" s="43"/>
       <c r="Z66" s="43"/>
@@ -5814,7 +5851,7 @@
       <c r="T67" s="39"/>
       <c r="U67" s="43"/>
       <c r="V67" s="43"/>
-      <c r="W67" s="55"/>
+      <c r="W67" s="53"/>
       <c r="X67" s="43"/>
       <c r="Y67" s="43"/>
       <c r="Z67" s="43"/>
@@ -5841,10 +5878,10 @@
       <c r="Q68" s="43"/>
       <c r="R68" s="43"/>
       <c r="S68" s="43"/>
-      <c r="T68" s="38"/>
+      <c r="T68" s="39"/>
       <c r="U68" s="43"/>
       <c r="V68" s="43"/>
-      <c r="W68" s="55"/>
+      <c r="W68" s="53"/>
       <c r="X68" s="43"/>
       <c r="Y68" s="43"/>
       <c r="Z68" s="43"/>
@@ -5871,10 +5908,10 @@
       <c r="Q69" s="43"/>
       <c r="R69" s="43"/>
       <c r="S69" s="43"/>
-      <c r="T69" s="43"/>
+      <c r="T69" s="38"/>
       <c r="U69" s="43"/>
       <c r="V69" s="43"/>
-      <c r="W69" s="55"/>
+      <c r="W69" s="53"/>
       <c r="X69" s="43"/>
       <c r="Y69" s="43"/>
       <c r="Z69" s="43"/>
@@ -5904,7 +5941,7 @@
       <c r="T70" s="43"/>
       <c r="U70" s="43"/>
       <c r="V70" s="43"/>
-      <c r="W70" s="55"/>
+      <c r="W70" s="53"/>
       <c r="X70" s="43"/>
       <c r="Y70" s="43"/>
       <c r="Z70" s="43"/>
@@ -5934,7 +5971,7 @@
       <c r="T71" s="43"/>
       <c r="U71" s="43"/>
       <c r="V71" s="43"/>
-      <c r="W71" s="55"/>
+      <c r="W71" s="53"/>
       <c r="X71" s="43"/>
       <c r="Y71" s="43"/>
       <c r="Z71" s="43"/>
@@ -5964,7 +6001,7 @@
       <c r="T72" s="43"/>
       <c r="U72" s="43"/>
       <c r="V72" s="43"/>
-      <c r="W72" s="55"/>
+      <c r="W72" s="53"/>
       <c r="X72" s="43"/>
       <c r="Y72" s="43"/>
       <c r="Z72" s="43"/>
@@ -5994,7 +6031,7 @@
       <c r="T73" s="43"/>
       <c r="U73" s="43"/>
       <c r="V73" s="43"/>
-      <c r="W73" s="55"/>
+      <c r="W73" s="53"/>
       <c r="X73" s="43"/>
       <c r="Y73" s="43"/>
       <c r="Z73" s="43"/>
@@ -6024,7 +6061,7 @@
       <c r="T74" s="43"/>
       <c r="U74" s="43"/>
       <c r="V74" s="43"/>
-      <c r="W74" s="55"/>
+      <c r="W74" s="53"/>
       <c r="X74" s="43"/>
       <c r="Y74" s="43"/>
       <c r="Z74" s="43"/>
@@ -6054,7 +6091,7 @@
       <c r="T75" s="43"/>
       <c r="U75" s="43"/>
       <c r="V75" s="43"/>
-      <c r="W75" s="55"/>
+      <c r="W75" s="53"/>
       <c r="X75" s="43"/>
       <c r="Y75" s="43"/>
       <c r="Z75" s="43"/>
@@ -6084,7 +6121,7 @@
       <c r="T76" s="43"/>
       <c r="U76" s="43"/>
       <c r="V76" s="43"/>
-      <c r="W76" s="55"/>
+      <c r="W76" s="53"/>
       <c r="X76" s="43"/>
       <c r="Y76" s="43"/>
       <c r="Z76" s="43"/>
@@ -6114,7 +6151,7 @@
       <c r="T77" s="43"/>
       <c r="U77" s="43"/>
       <c r="V77" s="43"/>
-      <c r="W77" s="55"/>
+      <c r="W77" s="53"/>
       <c r="X77" s="43"/>
       <c r="Y77" s="43"/>
       <c r="Z77" s="43"/>
@@ -6144,7 +6181,7 @@
       <c r="T78" s="43"/>
       <c r="U78" s="43"/>
       <c r="V78" s="43"/>
-      <c r="W78" s="55"/>
+      <c r="W78" s="53"/>
       <c r="X78" s="43"/>
       <c r="Y78" s="43"/>
       <c r="Z78" s="43"/>
@@ -6174,7 +6211,7 @@
       <c r="T79" s="43"/>
       <c r="U79" s="43"/>
       <c r="V79" s="43"/>
-      <c r="W79" s="55"/>
+      <c r="W79" s="53"/>
       <c r="X79" s="43"/>
       <c r="Y79" s="43"/>
       <c r="Z79" s="43"/>
@@ -6204,7 +6241,7 @@
       <c r="T80" s="43"/>
       <c r="U80" s="43"/>
       <c r="V80" s="43"/>
-      <c r="W80" s="55"/>
+      <c r="W80" s="53"/>
       <c r="X80" s="43"/>
       <c r="Y80" s="43"/>
       <c r="Z80" s="43"/>
@@ -6234,7 +6271,7 @@
       <c r="T81" s="43"/>
       <c r="U81" s="43"/>
       <c r="V81" s="43"/>
-      <c r="W81" s="55"/>
+      <c r="W81" s="53"/>
       <c r="X81" s="43"/>
       <c r="Y81" s="43"/>
       <c r="Z81" s="43"/>
@@ -6264,7 +6301,7 @@
       <c r="T82" s="43"/>
       <c r="U82" s="43"/>
       <c r="V82" s="43"/>
-      <c r="W82" s="55"/>
+      <c r="W82" s="53"/>
       <c r="X82" s="43"/>
       <c r="Y82" s="43"/>
       <c r="Z82" s="43"/>
@@ -6294,7 +6331,7 @@
       <c r="T83" s="43"/>
       <c r="U83" s="43"/>
       <c r="V83" s="43"/>
-      <c r="W83" s="55"/>
+      <c r="W83" s="53"/>
       <c r="X83" s="43"/>
       <c r="Y83" s="43"/>
       <c r="Z83" s="43"/>
@@ -6324,7 +6361,7 @@
       <c r="T84" s="43"/>
       <c r="U84" s="43"/>
       <c r="V84" s="43"/>
-      <c r="W84" s="55"/>
+      <c r="W84" s="53"/>
       <c r="X84" s="43"/>
       <c r="Y84" s="43"/>
       <c r="Z84" s="43"/>
@@ -6354,7 +6391,7 @@
       <c r="T85" s="43"/>
       <c r="U85" s="43"/>
       <c r="V85" s="43"/>
-      <c r="W85" s="55"/>
+      <c r="W85" s="53"/>
       <c r="X85" s="43"/>
       <c r="Y85" s="43"/>
       <c r="Z85" s="43"/>
@@ -6384,7 +6421,7 @@
       <c r="T86" s="43"/>
       <c r="U86" s="43"/>
       <c r="V86" s="43"/>
-      <c r="W86" s="55"/>
+      <c r="W86" s="53"/>
       <c r="X86" s="43"/>
       <c r="Y86" s="43"/>
       <c r="Z86" s="43"/>
@@ -6414,7 +6451,7 @@
       <c r="T87" s="43"/>
       <c r="U87" s="43"/>
       <c r="V87" s="43"/>
-      <c r="W87" s="55"/>
+      <c r="W87" s="53"/>
       <c r="X87" s="43"/>
       <c r="Y87" s="43"/>
       <c r="Z87" s="43"/>
@@ -6444,7 +6481,7 @@
       <c r="T88" s="43"/>
       <c r="U88" s="43"/>
       <c r="V88" s="43"/>
-      <c r="W88" s="55"/>
+      <c r="W88" s="53"/>
       <c r="X88" s="43"/>
       <c r="Y88" s="43"/>
       <c r="Z88" s="43"/>
@@ -6474,7 +6511,7 @@
       <c r="T89" s="43"/>
       <c r="U89" s="43"/>
       <c r="V89" s="43"/>
-      <c r="W89" s="55"/>
+      <c r="W89" s="53"/>
       <c r="X89" s="43"/>
       <c r="Y89" s="43"/>
       <c r="Z89" s="43"/>
@@ -6504,7 +6541,7 @@
       <c r="T90" s="43"/>
       <c r="U90" s="43"/>
       <c r="V90" s="43"/>
-      <c r="W90" s="55"/>
+      <c r="W90" s="53"/>
       <c r="X90" s="43"/>
       <c r="Y90" s="43"/>
       <c r="Z90" s="43"/>
@@ -6534,7 +6571,7 @@
       <c r="T91" s="43"/>
       <c r="U91" s="43"/>
       <c r="V91" s="43"/>
-      <c r="W91" s="55"/>
+      <c r="W91" s="53"/>
       <c r="X91" s="43"/>
       <c r="Y91" s="43"/>
       <c r="Z91" s="43"/>
@@ -6564,7 +6601,7 @@
       <c r="T92" s="43"/>
       <c r="U92" s="43"/>
       <c r="V92" s="43"/>
-      <c r="W92" s="55"/>
+      <c r="W92" s="53"/>
       <c r="X92" s="43"/>
       <c r="Y92" s="43"/>
       <c r="Z92" s="43"/>
@@ -6594,7 +6631,7 @@
       <c r="T93" s="43"/>
       <c r="U93" s="43"/>
       <c r="V93" s="43"/>
-      <c r="W93" s="55"/>
+      <c r="W93" s="53"/>
       <c r="X93" s="43"/>
       <c r="Y93" s="43"/>
       <c r="Z93" s="43"/>
@@ -6624,7 +6661,7 @@
       <c r="T94" s="43"/>
       <c r="U94" s="43"/>
       <c r="V94" s="43"/>
-      <c r="W94" s="55"/>
+      <c r="W94" s="53"/>
       <c r="X94" s="43"/>
       <c r="Y94" s="43"/>
       <c r="Z94" s="43"/>
@@ -6654,7 +6691,7 @@
       <c r="T95" s="43"/>
       <c r="U95" s="43"/>
       <c r="V95" s="43"/>
-      <c r="W95" s="55"/>
+      <c r="W95" s="53"/>
       <c r="X95" s="43"/>
       <c r="Y95" s="43"/>
       <c r="Z95" s="43"/>
@@ -6684,7 +6721,7 @@
       <c r="T96" s="43"/>
       <c r="U96" s="43"/>
       <c r="V96" s="43"/>
-      <c r="W96" s="55"/>
+      <c r="W96" s="53"/>
       <c r="X96" s="43"/>
       <c r="Y96" s="43"/>
       <c r="Z96" s="43"/>
@@ -6714,7 +6751,7 @@
       <c r="T97" s="43"/>
       <c r="U97" s="43"/>
       <c r="V97" s="43"/>
-      <c r="W97" s="55"/>
+      <c r="W97" s="53"/>
       <c r="X97" s="43"/>
       <c r="Y97" s="43"/>
       <c r="Z97" s="43"/>
@@ -6744,7 +6781,7 @@
       <c r="T98" s="43"/>
       <c r="U98" s="43"/>
       <c r="V98" s="43"/>
-      <c r="W98" s="55"/>
+      <c r="W98" s="53"/>
       <c r="X98" s="43"/>
       <c r="Y98" s="43"/>
       <c r="Z98" s="43"/>
@@ -6774,7 +6811,7 @@
       <c r="T99" s="43"/>
       <c r="U99" s="43"/>
       <c r="V99" s="43"/>
-      <c r="W99" s="55"/>
+      <c r="W99" s="53"/>
       <c r="X99" s="43"/>
       <c r="Y99" s="43"/>
       <c r="Z99" s="43"/>
@@ -6804,7 +6841,7 @@
       <c r="T100" s="43"/>
       <c r="U100" s="43"/>
       <c r="V100" s="43"/>
-      <c r="W100" s="55"/>
+      <c r="W100" s="53"/>
       <c r="X100" s="43"/>
       <c r="Y100" s="43"/>
       <c r="Z100" s="43"/>
@@ -6834,7 +6871,7 @@
       <c r="T101" s="43"/>
       <c r="U101" s="43"/>
       <c r="V101" s="43"/>
-      <c r="W101" s="55"/>
+      <c r="W101" s="53"/>
       <c r="X101" s="43"/>
       <c r="Y101" s="43"/>
       <c r="Z101" s="43"/>
@@ -6864,7 +6901,7 @@
       <c r="T102" s="43"/>
       <c r="U102" s="43"/>
       <c r="V102" s="43"/>
-      <c r="W102" s="55"/>
+      <c r="W102" s="53"/>
       <c r="X102" s="43"/>
       <c r="Y102" s="43"/>
       <c r="Z102" s="43"/>
@@ -6894,7 +6931,7 @@
       <c r="T103" s="43"/>
       <c r="U103" s="43"/>
       <c r="V103" s="43"/>
-      <c r="W103" s="55"/>
+      <c r="W103" s="53"/>
       <c r="X103" s="43"/>
       <c r="Y103" s="43"/>
       <c r="Z103" s="43"/>
@@ -6924,7 +6961,7 @@
       <c r="T104" s="43"/>
       <c r="U104" s="43"/>
       <c r="V104" s="43"/>
-      <c r="W104" s="55"/>
+      <c r="W104" s="53"/>
       <c r="X104" s="43"/>
       <c r="Y104" s="43"/>
       <c r="Z104" s="43"/>
@@ -6954,7 +6991,7 @@
       <c r="T105" s="43"/>
       <c r="U105" s="43"/>
       <c r="V105" s="43"/>
-      <c r="W105" s="55"/>
+      <c r="W105" s="53"/>
       <c r="X105" s="43"/>
       <c r="Y105" s="43"/>
       <c r="Z105" s="43"/>
@@ -6984,7 +7021,7 @@
       <c r="T106" s="43"/>
       <c r="U106" s="43"/>
       <c r="V106" s="43"/>
-      <c r="W106" s="55"/>
+      <c r="W106" s="53"/>
       <c r="X106" s="43"/>
       <c r="Y106" s="43"/>
       <c r="Z106" s="43"/>
@@ -7014,7 +7051,7 @@
       <c r="T107" s="43"/>
       <c r="U107" s="43"/>
       <c r="V107" s="43"/>
-      <c r="W107" s="55"/>
+      <c r="W107" s="53"/>
       <c r="X107" s="43"/>
       <c r="Y107" s="43"/>
       <c r="Z107" s="43"/>
@@ -7044,7 +7081,7 @@
       <c r="T108" s="43"/>
       <c r="U108" s="43"/>
       <c r="V108" s="43"/>
-      <c r="W108" s="55"/>
+      <c r="W108" s="53"/>
       <c r="X108" s="43"/>
       <c r="Y108" s="43"/>
       <c r="Z108" s="43"/>
@@ -7074,7 +7111,7 @@
       <c r="T109" s="43"/>
       <c r="U109" s="43"/>
       <c r="V109" s="43"/>
-      <c r="W109" s="55"/>
+      <c r="W109" s="53"/>
       <c r="X109" s="43"/>
       <c r="Y109" s="43"/>
       <c r="Z109" s="43"/>
@@ -7104,7 +7141,7 @@
       <c r="T110" s="43"/>
       <c r="U110" s="43"/>
       <c r="V110" s="43"/>
-      <c r="W110" s="55"/>
+      <c r="W110" s="53"/>
       <c r="X110" s="43"/>
       <c r="Y110" s="43"/>
       <c r="Z110" s="43"/>
@@ -7134,7 +7171,7 @@
       <c r="T111" s="43"/>
       <c r="U111" s="43"/>
       <c r="V111" s="43"/>
-      <c r="W111" s="55"/>
+      <c r="W111" s="53"/>
       <c r="X111" s="43"/>
       <c r="Y111" s="43"/>
       <c r="Z111" s="43"/>
@@ -7164,7 +7201,7 @@
       <c r="T112" s="43"/>
       <c r="U112" s="43"/>
       <c r="V112" s="43"/>
-      <c r="W112" s="55"/>
+      <c r="W112" s="53"/>
       <c r="X112" s="43"/>
       <c r="Y112" s="43"/>
       <c r="Z112" s="43"/>
@@ -7194,7 +7231,7 @@
       <c r="T113" s="43"/>
       <c r="U113" s="43"/>
       <c r="V113" s="43"/>
-      <c r="W113" s="55"/>
+      <c r="W113" s="53"/>
       <c r="X113" s="43"/>
       <c r="Y113" s="43"/>
       <c r="Z113" s="43"/>
@@ -7224,7 +7261,7 @@
       <c r="T114" s="43"/>
       <c r="U114" s="43"/>
       <c r="V114" s="43"/>
-      <c r="W114" s="55"/>
+      <c r="W114" s="53"/>
       <c r="X114" s="43"/>
       <c r="Y114" s="43"/>
       <c r="Z114" s="43"/>
@@ -7254,7 +7291,7 @@
       <c r="T115" s="43"/>
       <c r="U115" s="43"/>
       <c r="V115" s="43"/>
-      <c r="W115" s="55"/>
+      <c r="W115" s="53"/>
       <c r="X115" s="43"/>
       <c r="Y115" s="43"/>
       <c r="Z115" s="43"/>
@@ -7284,7 +7321,7 @@
       <c r="T116" s="43"/>
       <c r="U116" s="43"/>
       <c r="V116" s="43"/>
-      <c r="W116" s="55"/>
+      <c r="W116" s="53"/>
       <c r="X116" s="43"/>
       <c r="Y116" s="43"/>
       <c r="Z116" s="43"/>
@@ -7314,7 +7351,7 @@
       <c r="T117" s="43"/>
       <c r="U117" s="43"/>
       <c r="V117" s="43"/>
-      <c r="W117" s="55"/>
+      <c r="W117" s="53"/>
       <c r="X117" s="43"/>
       <c r="Y117" s="43"/>
       <c r="Z117" s="43"/>
@@ -7344,7 +7381,7 @@
       <c r="T118" s="43"/>
       <c r="U118" s="43"/>
       <c r="V118" s="43"/>
-      <c r="W118" s="55"/>
+      <c r="W118" s="53"/>
       <c r="X118" s="43"/>
       <c r="Y118" s="43"/>
       <c r="Z118" s="43"/>
@@ -7374,7 +7411,7 @@
       <c r="T119" s="43"/>
       <c r="U119" s="43"/>
       <c r="V119" s="43"/>
-      <c r="W119" s="55"/>
+      <c r="W119" s="53"/>
       <c r="X119" s="43"/>
       <c r="Y119" s="43"/>
       <c r="Z119" s="43"/>
@@ -7404,7 +7441,7 @@
       <c r="T120" s="43"/>
       <c r="U120" s="43"/>
       <c r="V120" s="43"/>
-      <c r="W120" s="55"/>
+      <c r="W120" s="53"/>
       <c r="X120" s="43"/>
       <c r="Y120" s="43"/>
       <c r="Z120" s="43"/>
@@ -7434,7 +7471,7 @@
       <c r="T121" s="43"/>
       <c r="U121" s="43"/>
       <c r="V121" s="43"/>
-      <c r="W121" s="55"/>
+      <c r="W121" s="53"/>
       <c r="X121" s="43"/>
       <c r="Y121" s="43"/>
       <c r="Z121" s="43"/>
@@ -7464,7 +7501,7 @@
       <c r="T122" s="43"/>
       <c r="U122" s="43"/>
       <c r="V122" s="43"/>
-      <c r="W122" s="55"/>
+      <c r="W122" s="53"/>
       <c r="X122" s="43"/>
       <c r="Y122" s="43"/>
       <c r="Z122" s="43"/>
@@ -7494,7 +7531,7 @@
       <c r="T123" s="43"/>
       <c r="U123" s="43"/>
       <c r="V123" s="43"/>
-      <c r="W123" s="55"/>
+      <c r="W123" s="53"/>
       <c r="X123" s="43"/>
       <c r="Y123" s="43"/>
       <c r="Z123" s="43"/>
@@ -7524,7 +7561,7 @@
       <c r="T124" s="43"/>
       <c r="U124" s="43"/>
       <c r="V124" s="43"/>
-      <c r="W124" s="55"/>
+      <c r="W124" s="53"/>
       <c r="X124" s="43"/>
       <c r="Y124" s="43"/>
       <c r="Z124" s="43"/>
@@ -7554,7 +7591,7 @@
       <c r="T125" s="43"/>
       <c r="U125" s="43"/>
       <c r="V125" s="43"/>
-      <c r="W125" s="55"/>
+      <c r="W125" s="53"/>
       <c r="X125" s="43"/>
       <c r="Y125" s="43"/>
       <c r="Z125" s="43"/>
@@ -7584,7 +7621,7 @@
       <c r="T126" s="43"/>
       <c r="U126" s="43"/>
       <c r="V126" s="43"/>
-      <c r="W126" s="55"/>
+      <c r="W126" s="53"/>
       <c r="X126" s="43"/>
       <c r="Y126" s="43"/>
       <c r="Z126" s="43"/>
@@ -7614,7 +7651,7 @@
       <c r="T127" s="43"/>
       <c r="U127" s="43"/>
       <c r="V127" s="43"/>
-      <c r="W127" s="55"/>
+      <c r="W127" s="53"/>
       <c r="X127" s="43"/>
       <c r="Y127" s="43"/>
       <c r="Z127" s="43"/>
@@ -7644,7 +7681,7 @@
       <c r="T128" s="43"/>
       <c r="U128" s="43"/>
       <c r="V128" s="43"/>
-      <c r="W128" s="55"/>
+      <c r="W128" s="53"/>
       <c r="X128" s="43"/>
       <c r="Y128" s="43"/>
       <c r="Z128" s="43"/>
@@ -7674,7 +7711,7 @@
       <c r="T129" s="43"/>
       <c r="U129" s="43"/>
       <c r="V129" s="43"/>
-      <c r="W129" s="55"/>
+      <c r="W129" s="53"/>
       <c r="X129" s="43"/>
       <c r="Y129" s="43"/>
       <c r="Z129" s="43"/>
@@ -7704,7 +7741,7 @@
       <c r="T130" s="43"/>
       <c r="U130" s="43"/>
       <c r="V130" s="43"/>
-      <c r="W130" s="55"/>
+      <c r="W130" s="53"/>
       <c r="X130" s="43"/>
       <c r="Y130" s="43"/>
       <c r="Z130" s="43"/>
@@ -7734,7 +7771,7 @@
       <c r="T131" s="43"/>
       <c r="U131" s="43"/>
       <c r="V131" s="43"/>
-      <c r="W131" s="55"/>
+      <c r="W131" s="53"/>
       <c r="X131" s="43"/>
       <c r="Y131" s="43"/>
       <c r="Z131" s="43"/>
@@ -7764,7 +7801,7 @@
       <c r="T132" s="43"/>
       <c r="U132" s="43"/>
       <c r="V132" s="43"/>
-      <c r="W132" s="55"/>
+      <c r="W132" s="53"/>
       <c r="X132" s="43"/>
       <c r="Y132" s="43"/>
       <c r="Z132" s="43"/>
@@ -7794,7 +7831,7 @@
       <c r="T133" s="43"/>
       <c r="U133" s="43"/>
       <c r="V133" s="43"/>
-      <c r="W133" s="55"/>
+      <c r="W133" s="53"/>
       <c r="X133" s="43"/>
       <c r="Y133" s="43"/>
       <c r="Z133" s="43"/>
@@ -7824,7 +7861,7 @@
       <c r="T134" s="43"/>
       <c r="U134" s="43"/>
       <c r="V134" s="43"/>
-      <c r="W134" s="55"/>
+      <c r="W134" s="53"/>
       <c r="X134" s="43"/>
       <c r="Y134" s="43"/>
       <c r="Z134" s="43"/>
@@ -7854,7 +7891,7 @@
       <c r="T135" s="43"/>
       <c r="U135" s="43"/>
       <c r="V135" s="43"/>
-      <c r="W135" s="55"/>
+      <c r="W135" s="53"/>
       <c r="X135" s="43"/>
       <c r="Y135" s="43"/>
       <c r="Z135" s="43"/>
@@ -7884,7 +7921,7 @@
       <c r="T136" s="43"/>
       <c r="U136" s="43"/>
       <c r="V136" s="43"/>
-      <c r="W136" s="55"/>
+      <c r="W136" s="53"/>
       <c r="X136" s="43"/>
       <c r="Y136" s="43"/>
       <c r="Z136" s="43"/>
@@ -7914,7 +7951,7 @@
       <c r="T137" s="43"/>
       <c r="U137" s="43"/>
       <c r="V137" s="43"/>
-      <c r="W137" s="55"/>
+      <c r="W137" s="53"/>
       <c r="X137" s="43"/>
       <c r="Y137" s="43"/>
       <c r="Z137" s="43"/>
@@ -7944,7 +7981,7 @@
       <c r="T138" s="43"/>
       <c r="U138" s="43"/>
       <c r="V138" s="43"/>
-      <c r="W138" s="55"/>
+      <c r="W138" s="53"/>
       <c r="X138" s="43"/>
       <c r="Y138" s="43"/>
       <c r="Z138" s="43"/>
@@ -7974,1456 +8011,1486 @@
       <c r="T139" s="43"/>
       <c r="U139" s="43"/>
       <c r="V139" s="43"/>
-      <c r="W139" s="55"/>
+      <c r="W139" s="53"/>
       <c r="X139" s="43"/>
       <c r="Y139" s="43"/>
       <c r="Z139" s="43"/>
       <c r="AA139" s="43"/>
       <c r="AB139" s="43"/>
     </row>
-    <row r="140" spans="1:28" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W140" s="59"/>
+    <row r="140" spans="1:28" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+      <c r="A140" s="43"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="43"/>
+      <c r="F140" s="43"/>
+      <c r="G140" s="43"/>
+      <c r="H140" s="43"/>
+      <c r="I140" s="43"/>
+      <c r="J140" s="43"/>
+      <c r="K140" s="43"/>
+      <c r="L140" s="43"/>
+      <c r="M140" s="43"/>
+      <c r="N140" s="43"/>
+      <c r="O140" s="43"/>
+      <c r="P140" s="43"/>
+      <c r="Q140" s="43"/>
+      <c r="R140" s="43"/>
+      <c r="S140" s="43"/>
+      <c r="T140" s="43"/>
+      <c r="U140" s="43"/>
+      <c r="V140" s="43"/>
+      <c r="W140" s="53"/>
+      <c r="X140" s="43"/>
+      <c r="Y140" s="43"/>
+      <c r="Z140" s="43"/>
+      <c r="AA140" s="43"/>
+      <c r="AB140" s="43"/>
     </row>
     <row r="141" spans="1:28" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W141" s="59"/>
+      <c r="W141" s="57"/>
     </row>
     <row r="142" spans="1:28" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W142" s="59"/>
+      <c r="W142" s="57"/>
     </row>
     <row r="143" spans="1:28" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W143" s="59"/>
+      <c r="W143" s="57"/>
     </row>
     <row r="144" spans="1:28" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W144" s="59"/>
+      <c r="W144" s="57"/>
     </row>
     <row r="145" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W145" s="59"/>
+      <c r="W145" s="57"/>
     </row>
     <row r="146" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W146" s="59"/>
+      <c r="W146" s="57"/>
     </row>
     <row r="147" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W147" s="59"/>
+      <c r="W147" s="57"/>
     </row>
     <row r="148" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W148" s="59"/>
+      <c r="W148" s="57"/>
     </row>
     <row r="149" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W149" s="59"/>
+      <c r="W149" s="57"/>
     </row>
     <row r="150" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W150" s="59"/>
+      <c r="W150" s="57"/>
     </row>
     <row r="151" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W151" s="59"/>
+      <c r="W151" s="57"/>
     </row>
     <row r="152" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W152" s="59"/>
+      <c r="W152" s="57"/>
     </row>
     <row r="153" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W153" s="59"/>
+      <c r="W153" s="57"/>
     </row>
     <row r="154" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W154" s="59"/>
+      <c r="W154" s="57"/>
     </row>
     <row r="155" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W155" s="59"/>
+      <c r="W155" s="57"/>
     </row>
     <row r="156" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W156" s="59"/>
+      <c r="W156" s="57"/>
     </row>
     <row r="157" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W157" s="59"/>
+      <c r="W157" s="57"/>
     </row>
     <row r="158" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W158" s="59"/>
+      <c r="W158" s="57"/>
     </row>
     <row r="159" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W159" s="59"/>
+      <c r="W159" s="57"/>
     </row>
     <row r="160" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W160" s="59"/>
+      <c r="W160" s="57"/>
     </row>
     <row r="161" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W161" s="59"/>
+      <c r="W161" s="57"/>
     </row>
     <row r="162" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W162" s="59"/>
+      <c r="W162" s="57"/>
     </row>
     <row r="163" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W163" s="59"/>
+      <c r="W163" s="57"/>
     </row>
     <row r="164" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W164" s="59"/>
+      <c r="W164" s="57"/>
     </row>
     <row r="165" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W165" s="59"/>
+      <c r="W165" s="57"/>
     </row>
     <row r="166" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W166" s="59"/>
+      <c r="W166" s="57"/>
     </row>
     <row r="167" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W167" s="59"/>
+      <c r="W167" s="57"/>
     </row>
     <row r="168" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W168" s="59"/>
+      <c r="W168" s="57"/>
     </row>
     <row r="169" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W169" s="59"/>
+      <c r="W169" s="57"/>
     </row>
     <row r="170" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W170" s="59"/>
+      <c r="W170" s="57"/>
     </row>
     <row r="171" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W171" s="59"/>
+      <c r="W171" s="57"/>
     </row>
     <row r="172" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W172" s="59"/>
+      <c r="W172" s="57"/>
     </row>
     <row r="173" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W173" s="59"/>
+      <c r="W173" s="57"/>
     </row>
     <row r="174" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W174" s="59"/>
+      <c r="W174" s="57"/>
     </row>
     <row r="175" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W175" s="59"/>
+      <c r="W175" s="57"/>
     </row>
     <row r="176" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W176" s="59"/>
+      <c r="W176" s="57"/>
     </row>
     <row r="177" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W177" s="59"/>
+      <c r="W177" s="57"/>
     </row>
     <row r="178" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W178" s="59"/>
+      <c r="W178" s="57"/>
     </row>
     <row r="179" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W179" s="59"/>
+      <c r="W179" s="57"/>
     </row>
     <row r="180" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W180" s="59"/>
+      <c r="W180" s="57"/>
     </row>
     <row r="181" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W181" s="59"/>
+      <c r="W181" s="57"/>
     </row>
     <row r="182" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W182" s="59"/>
+      <c r="W182" s="57"/>
     </row>
     <row r="183" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W183" s="59"/>
+      <c r="W183" s="57"/>
     </row>
     <row r="184" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W184" s="59"/>
+      <c r="W184" s="57"/>
     </row>
     <row r="185" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W185" s="59"/>
+      <c r="W185" s="57"/>
     </row>
     <row r="186" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W186" s="59"/>
+      <c r="W186" s="57"/>
     </row>
     <row r="187" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W187" s="59"/>
+      <c r="W187" s="57"/>
     </row>
     <row r="188" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W188" s="59"/>
+      <c r="W188" s="57"/>
     </row>
     <row r="189" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W189" s="59"/>
+      <c r="W189" s="57"/>
     </row>
     <row r="190" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W190" s="59"/>
+      <c r="W190" s="57"/>
     </row>
     <row r="191" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W191" s="59"/>
+      <c r="W191" s="57"/>
     </row>
     <row r="192" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W192" s="59"/>
+      <c r="W192" s="57"/>
     </row>
     <row r="193" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W193" s="59"/>
+      <c r="W193" s="57"/>
     </row>
     <row r="194" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W194" s="59"/>
+      <c r="W194" s="57"/>
     </row>
     <row r="195" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W195" s="59"/>
+      <c r="W195" s="57"/>
     </row>
     <row r="196" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W196" s="59"/>
+      <c r="W196" s="57"/>
     </row>
     <row r="197" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W197" s="59"/>
+      <c r="W197" s="57"/>
     </row>
     <row r="198" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W198" s="59"/>
+      <c r="W198" s="57"/>
     </row>
     <row r="199" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W199" s="59"/>
+      <c r="W199" s="57"/>
     </row>
     <row r="200" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W200" s="59"/>
+      <c r="W200" s="57"/>
     </row>
     <row r="201" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W201" s="59"/>
+      <c r="W201" s="57"/>
     </row>
     <row r="202" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W202" s="59"/>
+      <c r="W202" s="57"/>
     </row>
     <row r="203" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W203" s="59"/>
+      <c r="W203" s="57"/>
     </row>
     <row r="204" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W204" s="59"/>
+      <c r="W204" s="57"/>
     </row>
     <row r="205" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W205" s="59"/>
+      <c r="W205" s="57"/>
     </row>
     <row r="206" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W206" s="59"/>
+      <c r="W206" s="57"/>
     </row>
     <row r="207" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W207" s="59"/>
+      <c r="W207" s="57"/>
     </row>
     <row r="208" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W208" s="59"/>
+      <c r="W208" s="57"/>
     </row>
     <row r="209" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W209" s="59"/>
+      <c r="W209" s="57"/>
     </row>
     <row r="210" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W210" s="59"/>
+      <c r="W210" s="57"/>
     </row>
     <row r="211" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W211" s="59"/>
+      <c r="W211" s="57"/>
     </row>
     <row r="212" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W212" s="59"/>
+      <c r="W212" s="57"/>
     </row>
     <row r="213" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W213" s="59"/>
+      <c r="W213" s="57"/>
     </row>
     <row r="214" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W214" s="59"/>
+      <c r="W214" s="57"/>
     </row>
     <row r="215" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W215" s="59"/>
+      <c r="W215" s="57"/>
     </row>
     <row r="216" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W216" s="59"/>
+      <c r="W216" s="57"/>
     </row>
     <row r="217" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W217" s="59"/>
+      <c r="W217" s="57"/>
     </row>
     <row r="218" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W218" s="59"/>
+      <c r="W218" s="57"/>
     </row>
     <row r="219" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W219" s="59"/>
+      <c r="W219" s="57"/>
     </row>
     <row r="220" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W220" s="59"/>
+      <c r="W220" s="57"/>
     </row>
     <row r="221" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W221" s="59"/>
+      <c r="W221" s="57"/>
     </row>
     <row r="222" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W222" s="59"/>
+      <c r="W222" s="57"/>
     </row>
     <row r="223" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W223" s="59"/>
+      <c r="W223" s="57"/>
     </row>
     <row r="224" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W224" s="59"/>
+      <c r="W224" s="57"/>
     </row>
     <row r="225" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W225" s="59"/>
+      <c r="W225" s="57"/>
     </row>
     <row r="226" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W226" s="59"/>
+      <c r="W226" s="57"/>
     </row>
     <row r="227" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W227" s="59"/>
+      <c r="W227" s="57"/>
     </row>
     <row r="228" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W228" s="59"/>
+      <c r="W228" s="57"/>
     </row>
     <row r="229" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W229" s="59"/>
+      <c r="W229" s="57"/>
     </row>
     <row r="230" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W230" s="59"/>
+      <c r="W230" s="57"/>
     </row>
     <row r="231" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W231" s="59"/>
+      <c r="W231" s="57"/>
     </row>
     <row r="232" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W232" s="59"/>
+      <c r="W232" s="57"/>
     </row>
     <row r="233" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W233" s="59"/>
+      <c r="W233" s="57"/>
     </row>
     <row r="234" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W234" s="59"/>
+      <c r="W234" s="57"/>
     </row>
     <row r="235" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W235" s="59"/>
+      <c r="W235" s="57"/>
     </row>
     <row r="236" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W236" s="59"/>
+      <c r="W236" s="57"/>
     </row>
     <row r="237" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W237" s="59"/>
+      <c r="W237" s="57"/>
     </row>
     <row r="238" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W238" s="59"/>
+      <c r="W238" s="57"/>
     </row>
     <row r="239" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W239" s="59"/>
+      <c r="W239" s="57"/>
     </row>
     <row r="240" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W240" s="59"/>
+      <c r="W240" s="57"/>
     </row>
     <row r="241" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W241" s="59"/>
+      <c r="W241" s="57"/>
     </row>
     <row r="242" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W242" s="59"/>
+      <c r="W242" s="57"/>
     </row>
     <row r="243" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W243" s="59"/>
+      <c r="W243" s="57"/>
     </row>
     <row r="244" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W244" s="59"/>
+      <c r="W244" s="57"/>
     </row>
     <row r="245" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W245" s="59"/>
+      <c r="W245" s="57"/>
     </row>
     <row r="246" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W246" s="59"/>
+      <c r="W246" s="57"/>
     </row>
     <row r="247" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W247" s="59"/>
+      <c r="W247" s="57"/>
     </row>
     <row r="248" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W248" s="59"/>
+      <c r="W248" s="57"/>
     </row>
     <row r="249" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W249" s="59"/>
+      <c r="W249" s="57"/>
     </row>
     <row r="250" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W250" s="59"/>
+      <c r="W250" s="57"/>
     </row>
     <row r="251" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W251" s="59"/>
+      <c r="W251" s="57"/>
     </row>
     <row r="252" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W252" s="59"/>
+      <c r="W252" s="57"/>
     </row>
     <row r="253" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W253" s="59"/>
+      <c r="W253" s="57"/>
     </row>
     <row r="254" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W254" s="59"/>
+      <c r="W254" s="57"/>
     </row>
     <row r="255" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W255" s="59"/>
+      <c r="W255" s="57"/>
     </row>
     <row r="256" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W256" s="59"/>
+      <c r="W256" s="57"/>
     </row>
     <row r="257" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W257" s="59"/>
+      <c r="W257" s="57"/>
     </row>
     <row r="258" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W258" s="59"/>
+      <c r="W258" s="57"/>
     </row>
     <row r="259" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W259" s="59"/>
+      <c r="W259" s="57"/>
     </row>
     <row r="260" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W260" s="59"/>
+      <c r="W260" s="57"/>
     </row>
     <row r="261" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W261" s="59"/>
+      <c r="W261" s="57"/>
     </row>
     <row r="262" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W262" s="59"/>
+      <c r="W262" s="57"/>
     </row>
     <row r="263" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W263" s="59"/>
+      <c r="W263" s="57"/>
     </row>
     <row r="264" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W264" s="59"/>
+      <c r="W264" s="57"/>
     </row>
     <row r="265" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W265" s="59"/>
+      <c r="W265" s="57"/>
     </row>
     <row r="266" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W266" s="59"/>
+      <c r="W266" s="57"/>
     </row>
     <row r="267" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W267" s="59"/>
+      <c r="W267" s="57"/>
     </row>
     <row r="268" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W268" s="59"/>
+      <c r="W268" s="57"/>
     </row>
     <row r="269" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W269" s="59"/>
+      <c r="W269" s="57"/>
     </row>
     <row r="270" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W270" s="59"/>
+      <c r="W270" s="57"/>
     </row>
     <row r="271" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W271" s="59"/>
+      <c r="W271" s="57"/>
     </row>
     <row r="272" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W272" s="59"/>
+      <c r="W272" s="57"/>
     </row>
     <row r="273" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W273" s="59"/>
+      <c r="W273" s="57"/>
     </row>
     <row r="274" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W274" s="59"/>
+      <c r="W274" s="57"/>
     </row>
     <row r="275" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W275" s="59"/>
+      <c r="W275" s="57"/>
     </row>
     <row r="276" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W276" s="59"/>
+      <c r="W276" s="57"/>
     </row>
     <row r="277" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W277" s="59"/>
+      <c r="W277" s="57"/>
     </row>
     <row r="278" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W278" s="59"/>
+      <c r="W278" s="57"/>
     </row>
     <row r="279" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W279" s="59"/>
+      <c r="W279" s="57"/>
     </row>
     <row r="280" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W280" s="59"/>
+      <c r="W280" s="57"/>
     </row>
     <row r="281" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W281" s="59"/>
+      <c r="W281" s="57"/>
     </row>
     <row r="282" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W282" s="59"/>
+      <c r="W282" s="57"/>
     </row>
     <row r="283" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W283" s="59"/>
+      <c r="W283" s="57"/>
     </row>
     <row r="284" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W284" s="59"/>
+      <c r="W284" s="57"/>
     </row>
     <row r="285" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W285" s="59"/>
+      <c r="W285" s="57"/>
     </row>
     <row r="286" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W286" s="59"/>
+      <c r="W286" s="57"/>
     </row>
     <row r="287" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W287" s="59"/>
+      <c r="W287" s="57"/>
     </row>
     <row r="288" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W288" s="59"/>
+      <c r="W288" s="57"/>
     </row>
     <row r="289" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W289" s="59"/>
+      <c r="W289" s="57"/>
     </row>
     <row r="290" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W290" s="59"/>
+      <c r="W290" s="57"/>
     </row>
     <row r="291" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W291" s="59"/>
+      <c r="W291" s="57"/>
     </row>
     <row r="292" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W292" s="59"/>
+      <c r="W292" s="57"/>
     </row>
     <row r="293" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W293" s="59"/>
+      <c r="W293" s="57"/>
     </row>
     <row r="294" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W294" s="59"/>
+      <c r="W294" s="57"/>
     </row>
     <row r="295" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W295" s="59"/>
+      <c r="W295" s="57"/>
     </row>
     <row r="296" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W296" s="59"/>
+      <c r="W296" s="57"/>
     </row>
     <row r="297" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W297" s="59"/>
+      <c r="W297" s="57"/>
     </row>
     <row r="298" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W298" s="59"/>
+      <c r="W298" s="57"/>
     </row>
     <row r="299" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W299" s="59"/>
+      <c r="W299" s="57"/>
     </row>
     <row r="300" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W300" s="59"/>
+      <c r="W300" s="57"/>
     </row>
     <row r="301" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W301" s="59"/>
+      <c r="W301" s="57"/>
     </row>
     <row r="302" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W302" s="59"/>
+      <c r="W302" s="57"/>
     </row>
     <row r="303" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W303" s="59"/>
+      <c r="W303" s="57"/>
     </row>
     <row r="304" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W304" s="59"/>
+      <c r="W304" s="57"/>
     </row>
     <row r="305" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W305" s="59"/>
+      <c r="W305" s="57"/>
     </row>
     <row r="306" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W306" s="59"/>
+      <c r="W306" s="57"/>
     </row>
     <row r="307" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W307" s="59"/>
+      <c r="W307" s="57"/>
     </row>
     <row r="308" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W308" s="59"/>
+      <c r="W308" s="57"/>
     </row>
     <row r="309" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W309" s="59"/>
+      <c r="W309" s="57"/>
     </row>
     <row r="310" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W310" s="59"/>
+      <c r="W310" s="57"/>
     </row>
     <row r="311" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W311" s="59"/>
+      <c r="W311" s="57"/>
     </row>
     <row r="312" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W312" s="59"/>
+      <c r="W312" s="57"/>
     </row>
     <row r="313" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W313" s="59"/>
+      <c r="W313" s="57"/>
     </row>
     <row r="314" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W314" s="59"/>
+      <c r="W314" s="57"/>
     </row>
     <row r="315" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W315" s="59"/>
+      <c r="W315" s="57"/>
     </row>
     <row r="316" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W316" s="59"/>
+      <c r="W316" s="57"/>
     </row>
     <row r="317" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W317" s="59"/>
+      <c r="W317" s="57"/>
     </row>
     <row r="318" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W318" s="59"/>
+      <c r="W318" s="57"/>
     </row>
     <row r="319" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W319" s="59"/>
+      <c r="W319" s="57"/>
     </row>
     <row r="320" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W320" s="59"/>
+      <c r="W320" s="57"/>
     </row>
     <row r="321" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W321" s="59"/>
+      <c r="W321" s="57"/>
     </row>
     <row r="322" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W322" s="59"/>
+      <c r="W322" s="57"/>
     </row>
     <row r="323" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W323" s="59"/>
+      <c r="W323" s="57"/>
     </row>
     <row r="324" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W324" s="59"/>
+      <c r="W324" s="57"/>
     </row>
     <row r="325" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W325" s="59"/>
+      <c r="W325" s="57"/>
     </row>
     <row r="326" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W326" s="59"/>
+      <c r="W326" s="57"/>
     </row>
     <row r="327" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W327" s="59"/>
+      <c r="W327" s="57"/>
     </row>
     <row r="328" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W328" s="59"/>
+      <c r="W328" s="57"/>
     </row>
     <row r="329" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W329" s="59"/>
+      <c r="W329" s="57"/>
     </row>
     <row r="330" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W330" s="59"/>
+      <c r="W330" s="57"/>
     </row>
     <row r="331" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W331" s="59"/>
+      <c r="W331" s="57"/>
     </row>
     <row r="332" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W332" s="59"/>
+      <c r="W332" s="57"/>
     </row>
     <row r="333" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W333" s="59"/>
+      <c r="W333" s="57"/>
     </row>
     <row r="334" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W334" s="59"/>
+      <c r="W334" s="57"/>
     </row>
     <row r="335" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W335" s="59"/>
+      <c r="W335" s="57"/>
     </row>
     <row r="336" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W336" s="59"/>
+      <c r="W336" s="57"/>
     </row>
     <row r="337" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W337" s="59"/>
+      <c r="W337" s="57"/>
     </row>
     <row r="338" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W338" s="59"/>
+      <c r="W338" s="57"/>
     </row>
     <row r="339" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W339" s="59"/>
+      <c r="W339" s="57"/>
     </row>
     <row r="340" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W340" s="59"/>
+      <c r="W340" s="57"/>
     </row>
     <row r="341" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W341" s="59"/>
+      <c r="W341" s="57"/>
     </row>
     <row r="342" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W342" s="59"/>
+      <c r="W342" s="57"/>
     </row>
     <row r="343" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W343" s="59"/>
+      <c r="W343" s="57"/>
     </row>
     <row r="344" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W344" s="59"/>
+      <c r="W344" s="57"/>
     </row>
     <row r="345" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W345" s="59"/>
+      <c r="W345" s="57"/>
     </row>
     <row r="346" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W346" s="59"/>
+      <c r="W346" s="57"/>
     </row>
     <row r="347" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W347" s="59"/>
+      <c r="W347" s="57"/>
     </row>
     <row r="348" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W348" s="59"/>
+      <c r="W348" s="57"/>
     </row>
     <row r="349" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W349" s="59"/>
+      <c r="W349" s="57"/>
     </row>
     <row r="350" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W350" s="59"/>
+      <c r="W350" s="57"/>
     </row>
     <row r="351" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W351" s="59"/>
+      <c r="W351" s="57"/>
     </row>
     <row r="352" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W352" s="59"/>
+      <c r="W352" s="57"/>
     </row>
     <row r="353" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W353" s="59"/>
+      <c r="W353" s="57"/>
     </row>
     <row r="354" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W354" s="59"/>
+      <c r="W354" s="57"/>
     </row>
     <row r="355" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W355" s="59"/>
+      <c r="W355" s="57"/>
     </row>
     <row r="356" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W356" s="59"/>
+      <c r="W356" s="57"/>
     </row>
     <row r="357" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W357" s="59"/>
+      <c r="W357" s="57"/>
     </row>
     <row r="358" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W358" s="59"/>
+      <c r="W358" s="57"/>
     </row>
     <row r="359" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W359" s="59"/>
+      <c r="W359" s="57"/>
     </row>
     <row r="360" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W360" s="59"/>
+      <c r="W360" s="57"/>
     </row>
     <row r="361" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W361" s="59"/>
+      <c r="W361" s="57"/>
     </row>
     <row r="362" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W362" s="59"/>
+      <c r="W362" s="57"/>
     </row>
     <row r="363" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W363" s="59"/>
+      <c r="W363" s="57"/>
     </row>
     <row r="364" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W364" s="59"/>
+      <c r="W364" s="57"/>
     </row>
     <row r="365" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W365" s="59"/>
+      <c r="W365" s="57"/>
     </row>
     <row r="366" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W366" s="59"/>
+      <c r="W366" s="57"/>
     </row>
     <row r="367" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W367" s="59"/>
+      <c r="W367" s="57"/>
     </row>
     <row r="368" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W368" s="59"/>
+      <c r="W368" s="57"/>
     </row>
     <row r="369" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W369" s="59"/>
+      <c r="W369" s="57"/>
     </row>
     <row r="370" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W370" s="59"/>
+      <c r="W370" s="57"/>
     </row>
     <row r="371" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W371" s="59"/>
+      <c r="W371" s="57"/>
     </row>
     <row r="372" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W372" s="59"/>
+      <c r="W372" s="57"/>
     </row>
     <row r="373" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W373" s="59"/>
+      <c r="W373" s="57"/>
     </row>
     <row r="374" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W374" s="59"/>
+      <c r="W374" s="57"/>
     </row>
     <row r="375" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W375" s="59"/>
+      <c r="W375" s="57"/>
     </row>
     <row r="376" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W376" s="59"/>
+      <c r="W376" s="57"/>
     </row>
     <row r="377" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W377" s="59"/>
+      <c r="W377" s="57"/>
     </row>
     <row r="378" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W378" s="59"/>
+      <c r="W378" s="57"/>
     </row>
     <row r="379" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W379" s="59"/>
+      <c r="W379" s="57"/>
     </row>
     <row r="380" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W380" s="59"/>
+      <c r="W380" s="57"/>
     </row>
     <row r="381" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W381" s="59"/>
+      <c r="W381" s="57"/>
     </row>
     <row r="382" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W382" s="59"/>
+      <c r="W382" s="57"/>
     </row>
     <row r="383" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W383" s="59"/>
+      <c r="W383" s="57"/>
     </row>
     <row r="384" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W384" s="59"/>
+      <c r="W384" s="57"/>
     </row>
     <row r="385" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W385" s="59"/>
+      <c r="W385" s="57"/>
     </row>
     <row r="386" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W386" s="59"/>
+      <c r="W386" s="57"/>
     </row>
     <row r="387" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W387" s="59"/>
+      <c r="W387" s="57"/>
     </row>
     <row r="388" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W388" s="59"/>
+      <c r="W388" s="57"/>
     </row>
     <row r="389" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W389" s="59"/>
+      <c r="W389" s="57"/>
     </row>
     <row r="390" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W390" s="59"/>
+      <c r="W390" s="57"/>
     </row>
     <row r="391" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W391" s="59"/>
+      <c r="W391" s="57"/>
     </row>
     <row r="392" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W392" s="59"/>
+      <c r="W392" s="57"/>
     </row>
     <row r="393" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W393" s="59"/>
+      <c r="W393" s="57"/>
     </row>
     <row r="394" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W394" s="59"/>
+      <c r="W394" s="57"/>
     </row>
     <row r="395" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W395" s="59"/>
+      <c r="W395" s="57"/>
     </row>
     <row r="396" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W396" s="59"/>
+      <c r="W396" s="57"/>
     </row>
     <row r="397" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W397" s="59"/>
+      <c r="W397" s="57"/>
     </row>
     <row r="398" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W398" s="59"/>
+      <c r="W398" s="57"/>
     </row>
     <row r="399" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W399" s="59"/>
+      <c r="W399" s="57"/>
     </row>
     <row r="400" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W400" s="59"/>
+      <c r="W400" s="57"/>
     </row>
     <row r="401" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W401" s="59"/>
+      <c r="W401" s="57"/>
     </row>
     <row r="402" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W402" s="59"/>
+      <c r="W402" s="57"/>
     </row>
     <row r="403" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W403" s="59"/>
+      <c r="W403" s="57"/>
     </row>
     <row r="404" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W404" s="59"/>
+      <c r="W404" s="57"/>
     </row>
     <row r="405" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W405" s="59"/>
+      <c r="W405" s="57"/>
     </row>
     <row r="406" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W406" s="59"/>
+      <c r="W406" s="57"/>
     </row>
     <row r="407" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W407" s="59"/>
+      <c r="W407" s="57"/>
     </row>
     <row r="408" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W408" s="59"/>
+      <c r="W408" s="57"/>
     </row>
     <row r="409" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W409" s="59"/>
+      <c r="W409" s="57"/>
     </row>
     <row r="410" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W410" s="59"/>
+      <c r="W410" s="57"/>
     </row>
     <row r="411" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W411" s="59"/>
+      <c r="W411" s="57"/>
     </row>
     <row r="412" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W412" s="59"/>
+      <c r="W412" s="57"/>
     </row>
     <row r="413" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W413" s="59"/>
+      <c r="W413" s="57"/>
     </row>
     <row r="414" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W414" s="59"/>
+      <c r="W414" s="57"/>
     </row>
     <row r="415" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W415" s="59"/>
+      <c r="W415" s="57"/>
     </row>
     <row r="416" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W416" s="59"/>
+      <c r="W416" s="57"/>
     </row>
     <row r="417" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W417" s="59"/>
+      <c r="W417" s="57"/>
     </row>
     <row r="418" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W418" s="59"/>
+      <c r="W418" s="57"/>
     </row>
     <row r="419" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W419" s="59"/>
+      <c r="W419" s="57"/>
     </row>
     <row r="420" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W420" s="59"/>
+      <c r="W420" s="57"/>
     </row>
     <row r="421" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W421" s="59"/>
+      <c r="W421" s="57"/>
     </row>
     <row r="422" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W422" s="59"/>
+      <c r="W422" s="57"/>
     </row>
     <row r="423" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W423" s="59"/>
+      <c r="W423" s="57"/>
     </row>
     <row r="424" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W424" s="59"/>
+      <c r="W424" s="57"/>
     </row>
     <row r="425" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W425" s="59"/>
+      <c r="W425" s="57"/>
     </row>
     <row r="426" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W426" s="59"/>
+      <c r="W426" s="57"/>
     </row>
     <row r="427" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W427" s="59"/>
+      <c r="W427" s="57"/>
     </row>
     <row r="428" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W428" s="59"/>
+      <c r="W428" s="57"/>
     </row>
     <row r="429" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W429" s="59"/>
+      <c r="W429" s="57"/>
     </row>
     <row r="430" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W430" s="59"/>
+      <c r="W430" s="57"/>
     </row>
     <row r="431" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W431" s="59"/>
+      <c r="W431" s="57"/>
     </row>
     <row r="432" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W432" s="59"/>
+      <c r="W432" s="57"/>
     </row>
     <row r="433" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W433" s="59"/>
+      <c r="W433" s="57"/>
     </row>
     <row r="434" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W434" s="59"/>
+      <c r="W434" s="57"/>
     </row>
     <row r="435" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W435" s="59"/>
+      <c r="W435" s="57"/>
     </row>
     <row r="436" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W436" s="59"/>
+      <c r="W436" s="57"/>
     </row>
     <row r="437" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W437" s="59"/>
+      <c r="W437" s="57"/>
     </row>
     <row r="438" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W438" s="59"/>
+      <c r="W438" s="57"/>
     </row>
     <row r="439" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W439" s="59"/>
+      <c r="W439" s="57"/>
     </row>
     <row r="440" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W440" s="59"/>
+      <c r="W440" s="57"/>
     </row>
     <row r="441" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W441" s="59"/>
+      <c r="W441" s="57"/>
     </row>
     <row r="442" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W442" s="59"/>
+      <c r="W442" s="57"/>
     </row>
     <row r="443" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W443" s="59"/>
+      <c r="W443" s="57"/>
     </row>
     <row r="444" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W444" s="59"/>
+      <c r="W444" s="57"/>
     </row>
     <row r="445" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W445" s="59"/>
+      <c r="W445" s="57"/>
     </row>
     <row r="446" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W446" s="59"/>
+      <c r="W446" s="57"/>
     </row>
     <row r="447" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W447" s="59"/>
+      <c r="W447" s="57"/>
     </row>
     <row r="448" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W448" s="59"/>
+      <c r="W448" s="57"/>
     </row>
     <row r="449" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W449" s="59"/>
+      <c r="W449" s="57"/>
     </row>
     <row r="450" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W450" s="59"/>
+      <c r="W450" s="57"/>
     </row>
     <row r="451" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W451" s="59"/>
+      <c r="W451" s="57"/>
     </row>
     <row r="452" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W452" s="59"/>
+      <c r="W452" s="57"/>
     </row>
     <row r="453" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W453" s="59"/>
+      <c r="W453" s="57"/>
     </row>
     <row r="454" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W454" s="59"/>
+      <c r="W454" s="57"/>
     </row>
     <row r="455" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W455" s="59"/>
+      <c r="W455" s="57"/>
     </row>
     <row r="456" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W456" s="59"/>
+      <c r="W456" s="57"/>
     </row>
     <row r="457" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W457" s="59"/>
+      <c r="W457" s="57"/>
     </row>
     <row r="458" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W458" s="59"/>
+      <c r="W458" s="57"/>
     </row>
     <row r="459" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W459" s="59"/>
+      <c r="W459" s="57"/>
     </row>
     <row r="460" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W460" s="59"/>
+      <c r="W460" s="57"/>
     </row>
     <row r="461" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W461" s="59"/>
+      <c r="W461" s="57"/>
     </row>
     <row r="462" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W462" s="59"/>
+      <c r="W462" s="57"/>
     </row>
     <row r="463" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W463" s="59"/>
+      <c r="W463" s="57"/>
     </row>
     <row r="464" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W464" s="59"/>
+      <c r="W464" s="57"/>
     </row>
     <row r="465" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W465" s="59"/>
+      <c r="W465" s="57"/>
     </row>
     <row r="466" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W466" s="59"/>
+      <c r="W466" s="57"/>
     </row>
     <row r="467" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W467" s="59"/>
+      <c r="W467" s="57"/>
     </row>
     <row r="468" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W468" s="59"/>
+      <c r="W468" s="57"/>
     </row>
     <row r="469" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W469" s="59"/>
+      <c r="W469" s="57"/>
     </row>
     <row r="470" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W470" s="59"/>
+      <c r="W470" s="57"/>
     </row>
     <row r="471" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W471" s="59"/>
+      <c r="W471" s="57"/>
     </row>
     <row r="472" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W472" s="59"/>
+      <c r="W472" s="57"/>
     </row>
     <row r="473" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W473" s="59"/>
+      <c r="W473" s="57"/>
     </row>
     <row r="474" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W474" s="59"/>
+      <c r="W474" s="57"/>
     </row>
     <row r="475" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W475" s="59"/>
+      <c r="W475" s="57"/>
     </row>
     <row r="476" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W476" s="59"/>
+      <c r="W476" s="57"/>
     </row>
     <row r="477" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W477" s="59"/>
+      <c r="W477" s="57"/>
     </row>
     <row r="478" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W478" s="59"/>
+      <c r="W478" s="57"/>
     </row>
     <row r="479" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W479" s="59"/>
+      <c r="W479" s="57"/>
     </row>
     <row r="480" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W480" s="59"/>
+      <c r="W480" s="57"/>
     </row>
     <row r="481" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W481" s="59"/>
+      <c r="W481" s="57"/>
     </row>
     <row r="482" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W482" s="59"/>
+      <c r="W482" s="57"/>
     </row>
     <row r="483" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W483" s="59"/>
+      <c r="W483" s="57"/>
     </row>
     <row r="484" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W484" s="59"/>
+      <c r="W484" s="57"/>
     </row>
     <row r="485" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W485" s="59"/>
+      <c r="W485" s="57"/>
     </row>
     <row r="486" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W486" s="59"/>
+      <c r="W486" s="57"/>
     </row>
     <row r="487" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W487" s="59"/>
+      <c r="W487" s="57"/>
     </row>
     <row r="488" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W488" s="59"/>
+      <c r="W488" s="57"/>
     </row>
     <row r="489" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W489" s="59"/>
+      <c r="W489" s="57"/>
     </row>
     <row r="490" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W490" s="59"/>
+      <c r="W490" s="57"/>
     </row>
     <row r="491" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W491" s="59"/>
+      <c r="W491" s="57"/>
     </row>
     <row r="492" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W492" s="59"/>
+      <c r="W492" s="57"/>
     </row>
     <row r="493" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W493" s="59"/>
+      <c r="W493" s="57"/>
     </row>
     <row r="494" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W494" s="59"/>
+      <c r="W494" s="57"/>
     </row>
     <row r="495" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W495" s="59"/>
+      <c r="W495" s="57"/>
     </row>
     <row r="496" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W496" s="59"/>
+      <c r="W496" s="57"/>
     </row>
     <row r="497" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W497" s="59"/>
+      <c r="W497" s="57"/>
     </row>
     <row r="498" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W498" s="59"/>
+      <c r="W498" s="57"/>
     </row>
     <row r="499" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W499" s="59"/>
+      <c r="W499" s="57"/>
     </row>
     <row r="500" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W500" s="59"/>
+      <c r="W500" s="57"/>
     </row>
     <row r="501" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W501" s="59"/>
+      <c r="W501" s="57"/>
     </row>
     <row r="502" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W502" s="59"/>
+      <c r="W502" s="57"/>
     </row>
     <row r="503" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W503" s="59"/>
+      <c r="W503" s="57"/>
     </row>
     <row r="504" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W504" s="59"/>
+      <c r="W504" s="57"/>
     </row>
     <row r="505" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W505" s="59"/>
+      <c r="W505" s="57"/>
     </row>
     <row r="506" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W506" s="59"/>
+      <c r="W506" s="57"/>
     </row>
     <row r="507" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W507" s="59"/>
+      <c r="W507" s="57"/>
     </row>
     <row r="508" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W508" s="59"/>
+      <c r="W508" s="57"/>
     </row>
     <row r="509" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W509" s="59"/>
+      <c r="W509" s="57"/>
     </row>
     <row r="510" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W510" s="59"/>
+      <c r="W510" s="57"/>
     </row>
     <row r="511" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W511" s="59"/>
+      <c r="W511" s="57"/>
     </row>
     <row r="512" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W512" s="59"/>
+      <c r="W512" s="57"/>
     </row>
     <row r="513" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W513" s="59"/>
+      <c r="W513" s="57"/>
     </row>
     <row r="514" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W514" s="59"/>
+      <c r="W514" s="57"/>
     </row>
     <row r="515" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W515" s="59"/>
+      <c r="W515" s="57"/>
     </row>
     <row r="516" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W516" s="59"/>
+      <c r="W516" s="57"/>
     </row>
     <row r="517" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W517" s="59"/>
+      <c r="W517" s="57"/>
     </row>
     <row r="518" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W518" s="59"/>
+      <c r="W518" s="57"/>
     </row>
     <row r="519" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W519" s="59"/>
+      <c r="W519" s="57"/>
     </row>
     <row r="520" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W520" s="59"/>
+      <c r="W520" s="57"/>
     </row>
     <row r="521" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W521" s="59"/>
+      <c r="W521" s="57"/>
     </row>
     <row r="522" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W522" s="59"/>
+      <c r="W522" s="57"/>
     </row>
     <row r="523" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W523" s="59"/>
+      <c r="W523" s="57"/>
     </row>
     <row r="524" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W524" s="59"/>
+      <c r="W524" s="57"/>
     </row>
     <row r="525" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W525" s="59"/>
+      <c r="W525" s="57"/>
     </row>
     <row r="526" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W526" s="59"/>
+      <c r="W526" s="57"/>
     </row>
     <row r="527" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W527" s="59"/>
+      <c r="W527" s="57"/>
     </row>
     <row r="528" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W528" s="59"/>
+      <c r="W528" s="57"/>
     </row>
     <row r="529" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W529" s="59"/>
+      <c r="W529" s="57"/>
     </row>
     <row r="530" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W530" s="59"/>
+      <c r="W530" s="57"/>
     </row>
     <row r="531" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W531" s="59"/>
+      <c r="W531" s="57"/>
     </row>
     <row r="532" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W532" s="59"/>
+      <c r="W532" s="57"/>
     </row>
     <row r="533" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W533" s="59"/>
+      <c r="W533" s="57"/>
     </row>
     <row r="534" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W534" s="59"/>
+      <c r="W534" s="57"/>
     </row>
     <row r="535" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W535" s="59"/>
+      <c r="W535" s="57"/>
     </row>
     <row r="536" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W536" s="59"/>
+      <c r="W536" s="57"/>
     </row>
     <row r="537" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W537" s="59"/>
+      <c r="W537" s="57"/>
     </row>
     <row r="538" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W538" s="59"/>
+      <c r="W538" s="57"/>
     </row>
     <row r="539" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W539" s="59"/>
+      <c r="W539" s="57"/>
     </row>
     <row r="540" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W540" s="59"/>
+      <c r="W540" s="57"/>
     </row>
     <row r="541" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W541" s="59"/>
+      <c r="W541" s="57"/>
     </row>
     <row r="542" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W542" s="59"/>
+      <c r="W542" s="57"/>
     </row>
     <row r="543" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W543" s="59"/>
+      <c r="W543" s="57"/>
     </row>
     <row r="544" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W544" s="59"/>
+      <c r="W544" s="57"/>
     </row>
     <row r="545" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W545" s="59"/>
+      <c r="W545" s="57"/>
     </row>
     <row r="546" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W546" s="59"/>
+      <c r="W546" s="57"/>
     </row>
     <row r="547" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W547" s="59"/>
+      <c r="W547" s="57"/>
     </row>
     <row r="548" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W548" s="59"/>
+      <c r="W548" s="57"/>
     </row>
     <row r="549" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W549" s="59"/>
+      <c r="W549" s="57"/>
     </row>
     <row r="550" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W550" s="59"/>
+      <c r="W550" s="57"/>
     </row>
     <row r="551" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W551" s="59"/>
+      <c r="W551" s="57"/>
     </row>
     <row r="552" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W552" s="59"/>
+      <c r="W552" s="57"/>
     </row>
     <row r="553" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W553" s="59"/>
+      <c r="W553" s="57"/>
     </row>
     <row r="554" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W554" s="59"/>
+      <c r="W554" s="57"/>
     </row>
     <row r="555" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W555" s="59"/>
+      <c r="W555" s="57"/>
     </row>
     <row r="556" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W556" s="59"/>
+      <c r="W556" s="57"/>
     </row>
     <row r="557" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W557" s="59"/>
+      <c r="W557" s="57"/>
     </row>
     <row r="558" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W558" s="59"/>
+      <c r="W558" s="57"/>
     </row>
     <row r="559" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W559" s="59"/>
+      <c r="W559" s="57"/>
     </row>
     <row r="560" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W560" s="59"/>
+      <c r="W560" s="57"/>
     </row>
     <row r="561" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W561" s="59"/>
+      <c r="W561" s="57"/>
     </row>
     <row r="562" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W562" s="59"/>
+      <c r="W562" s="57"/>
     </row>
     <row r="563" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W563" s="59"/>
+      <c r="W563" s="57"/>
     </row>
     <row r="564" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W564" s="59"/>
+      <c r="W564" s="57"/>
     </row>
     <row r="565" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W565" s="59"/>
+      <c r="W565" s="57"/>
     </row>
     <row r="566" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W566" s="59"/>
+      <c r="W566" s="57"/>
     </row>
     <row r="567" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W567" s="59"/>
+      <c r="W567" s="57"/>
     </row>
     <row r="568" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W568" s="59"/>
+      <c r="W568" s="57"/>
     </row>
     <row r="569" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W569" s="59"/>
+      <c r="W569" s="57"/>
     </row>
     <row r="570" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W570" s="59"/>
+      <c r="W570" s="57"/>
     </row>
     <row r="571" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W571" s="59"/>
+      <c r="W571" s="57"/>
     </row>
     <row r="572" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W572" s="59"/>
+      <c r="W572" s="57"/>
     </row>
     <row r="573" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W573" s="59"/>
+      <c r="W573" s="57"/>
     </row>
     <row r="574" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W574" s="59"/>
+      <c r="W574" s="57"/>
     </row>
     <row r="575" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W575" s="59"/>
+      <c r="W575" s="57"/>
     </row>
     <row r="576" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W576" s="59"/>
+      <c r="W576" s="57"/>
     </row>
     <row r="577" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W577" s="59"/>
+      <c r="W577" s="57"/>
     </row>
     <row r="578" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W578" s="59"/>
+      <c r="W578" s="57"/>
     </row>
     <row r="579" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W579" s="59"/>
+      <c r="W579" s="57"/>
     </row>
     <row r="580" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W580" s="59"/>
+      <c r="W580" s="57"/>
     </row>
     <row r="581" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W581" s="59"/>
+      <c r="W581" s="57"/>
     </row>
     <row r="582" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W582" s="59"/>
+      <c r="W582" s="57"/>
     </row>
     <row r="583" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W583" s="59"/>
+      <c r="W583" s="57"/>
     </row>
     <row r="584" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W584" s="59"/>
+      <c r="W584" s="57"/>
     </row>
     <row r="585" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W585" s="59"/>
+      <c r="W585" s="57"/>
     </row>
     <row r="586" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W586" s="59"/>
+      <c r="W586" s="57"/>
     </row>
     <row r="587" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W587" s="59"/>
+      <c r="W587" s="57"/>
     </row>
     <row r="588" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W588" s="59"/>
+      <c r="W588" s="57"/>
     </row>
     <row r="589" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W589" s="59"/>
+      <c r="W589" s="57"/>
     </row>
     <row r="590" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W590" s="59"/>
+      <c r="W590" s="57"/>
     </row>
     <row r="591" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W591" s="59"/>
+      <c r="W591" s="57"/>
     </row>
     <row r="592" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W592" s="59"/>
+      <c r="W592" s="57"/>
     </row>
     <row r="593" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W593" s="59"/>
+      <c r="W593" s="57"/>
     </row>
     <row r="594" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W594" s="59"/>
+      <c r="W594" s="57"/>
     </row>
     <row r="595" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W595" s="59"/>
+      <c r="W595" s="57"/>
     </row>
     <row r="596" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W596" s="59"/>
+      <c r="W596" s="57"/>
     </row>
     <row r="597" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W597" s="59"/>
+      <c r="W597" s="57"/>
     </row>
     <row r="598" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W598" s="59"/>
+      <c r="W598" s="57"/>
     </row>
     <row r="599" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W599" s="59"/>
+      <c r="W599" s="57"/>
     </row>
     <row r="600" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W600" s="59"/>
+      <c r="W600" s="57"/>
     </row>
     <row r="601" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W601" s="59"/>
+      <c r="W601" s="57"/>
     </row>
     <row r="602" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W602" s="59"/>
+      <c r="W602" s="57"/>
     </row>
     <row r="603" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W603" s="59"/>
+      <c r="W603" s="57"/>
     </row>
     <row r="604" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W604" s="59"/>
+      <c r="W604" s="57"/>
     </row>
     <row r="605" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W605" s="59"/>
+      <c r="W605" s="57"/>
     </row>
     <row r="606" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W606" s="59"/>
+      <c r="W606" s="57"/>
     </row>
     <row r="607" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W607" s="59"/>
+      <c r="W607" s="57"/>
     </row>
     <row r="608" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W608" s="59"/>
+      <c r="W608" s="57"/>
     </row>
     <row r="609" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W609" s="59"/>
+      <c r="W609" s="57"/>
     </row>
     <row r="610" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W610" s="59"/>
+      <c r="W610" s="57"/>
     </row>
     <row r="611" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W611" s="59"/>
+      <c r="W611" s="57"/>
     </row>
     <row r="612" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W612" s="59"/>
+      <c r="W612" s="57"/>
     </row>
     <row r="613" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W613" s="59"/>
+      <c r="W613" s="57"/>
     </row>
     <row r="614" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W614" s="59"/>
+      <c r="W614" s="57"/>
     </row>
     <row r="615" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W615" s="59"/>
+      <c r="W615" s="57"/>
     </row>
     <row r="616" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="W616" s="59"/>
+      <c r="W616" s="57"/>
+    </row>
+    <row r="617" spans="23:23" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="W617" s="57"/>
     </row>
   </sheetData>
-  <autoFilter ref="A12:U133" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A12:U134" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ucats/pages/猫咪档案.xlsx
+++ b/Ucats/pages/猫咪档案.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B544D62-F399-4065-A654-D5E276217A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81249888-D6F4-422B-8451-7D810F2E4338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1824,7 +1824,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1989,6 +1989,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2017,25 +2035,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2340,8 +2339,8 @@
   <dimension ref="A1:AD617"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
+      <pane ySplit="12" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -2399,21 +2398,21 @@
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="61"/>
+      <c r="K3" s="67"/>
       <c r="L3" s="4"/>
       <c r="M3" s="13" t="s">
         <v>20</v>
@@ -2437,7 +2436,7 @@
       <c r="U3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="68" t="s">
+      <c r="V3" s="59" t="s">
         <v>36</v>
       </c>
       <c r="W3" s="55" t="s">
@@ -2478,7 +2477,7 @@
       <c r="U4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="69"/>
+      <c r="V4" s="60"/>
       <c r="Y4" s="23" t="s">
         <v>51</v>
       </c>
@@ -2487,18 +2486,18 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
-      <c r="H5" s="58" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
+      <c r="H5" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="59"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="65"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2514,7 +2513,7 @@
       <c r="U5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="69"/>
+      <c r="V5" s="60"/>
       <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
@@ -2529,7 +2528,7 @@
       <c r="U6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="69" t="s">
+      <c r="V6" s="60" t="s">
         <v>37</v>
       </c>
       <c r="W6" s="55" t="s">
@@ -2577,7 +2576,7 @@
       <c r="U7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="69"/>
+      <c r="V7" s="60"/>
       <c r="Y7" s="21">
         <v>2</v>
       </c>
@@ -2607,7 +2606,7 @@
       <c r="U8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="69" t="s">
+      <c r="V8" s="60" t="s">
         <v>38</v>
       </c>
       <c r="Y8" s="21">
@@ -2639,7 +2638,7 @@
       <c r="U9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="69"/>
+      <c r="V9" s="60"/>
       <c r="Y9" s="21">
         <v>4</v>
       </c>
@@ -2662,7 +2661,7 @@
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="Q10" s="66" t="s">
+      <c r="Q10" s="72" t="s">
         <v>69</v>
       </c>
       <c r="R10" s="31" t="s">
@@ -2697,7 +2696,7 @@
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="Q11" s="67"/>
+      <c r="Q11" s="73"/>
       <c r="R11" s="4"/>
       <c r="V11" s="34" t="s">
         <v>72</v>
@@ -2815,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="41"/>
-      <c r="M13" s="74"/>
+      <c r="M13" s="58"/>
       <c r="N13" s="42">
         <v>0</v>
       </c>
@@ -2873,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="42"/>
-      <c r="M14" s="74" t="s">
+      <c r="M14" s="58" t="s">
         <v>292</v>
       </c>
       <c r="N14" s="42">
@@ -2933,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="47"/>
-      <c r="M15" s="74"/>
+      <c r="M15" s="58"/>
       <c r="N15" s="42">
         <v>0</v>
       </c>
@@ -2989,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="42"/>
-      <c r="M16" s="74"/>
+      <c r="M16" s="58"/>
       <c r="N16" s="42">
         <v>0</v>
       </c>
@@ -3047,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="42"/>
-      <c r="M17" s="74"/>
+      <c r="M17" s="58"/>
       <c r="N17" s="42">
         <v>0</v>
       </c>
@@ -3105,7 +3104,7 @@
       <c r="L18" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="M18" s="74"/>
+      <c r="M18" s="58"/>
       <c r="N18" s="42">
         <v>0</v>
       </c>
@@ -4940,7 +4939,7 @@
         <v>224</v>
       </c>
       <c r="U50" s="43"/>
-      <c r="V50" s="73" t="s">
+      <c r="V50" s="43" t="s">
         <v>287</v>
       </c>
       <c r="W50" s="53"/>
@@ -5182,7 +5181,7 @@
         <v>245</v>
       </c>
       <c r="U54" s="43"/>
-      <c r="V54" s="73" t="s">
+      <c r="V54" s="43" t="s">
         <v>288</v>
       </c>
       <c r="W54" s="53"/>
@@ -5493,7 +5492,7 @@
         <v>269</v>
       </c>
       <c r="D60" s="38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E60" s="43"/>
       <c r="F60" s="43" t="s">
@@ -9482,6 +9481,7 @@
   </sheetData>
   <autoFilter ref="A12:U134" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
+    <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="V3:V5"/>
     <mergeCell ref="V6:V7"/>
     <mergeCell ref="V8:V9"/>
@@ -9490,7 +9490,6 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="Q10:Q11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ucats/pages/猫咪档案.xlsx
+++ b/Ucats/pages/猫咪档案.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81249888-D6F4-422B-8451-7D810F2E4338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E332B00C-590C-40F8-8E7D-7E7530C308F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="296">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1139,10 +1139,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小小三花</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>萌萌三花</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1151,14 +1147,6 @@
   </si>
   <si>
     <t>失踪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和狸三花、七七同一窝被遗弃。目前和狸三花、新邻居小小三花和睦相处</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和白三花、七七同一窝被遗弃。目前和白三花、新邻居小小三花和睦相处</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1453,6 +1441,26 @@
   </si>
   <si>
     <t>女明星不是异瞳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胆子小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较亲人，偶尔怕人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大眼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和狸三花、七七同一窝被遗弃。和狸三花、新邻居大眼关系很好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和白三花、七七同一窝被遗弃。和新三花、新邻居大眼关系很好</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1992,21 +2000,6 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2036,6 +2029,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2338,9 +2346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD617"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S53" sqref="S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -2398,21 +2406,21 @@
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="65"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="67"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="4"/>
       <c r="M3" s="13" t="s">
         <v>20</v>
@@ -2436,7 +2444,7 @@
       <c r="U3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="59" t="s">
+      <c r="V3" s="69" t="s">
         <v>36</v>
       </c>
       <c r="W3" s="55" t="s">
@@ -2477,7 +2485,7 @@
       <c r="U4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="60"/>
+      <c r="V4" s="70"/>
       <c r="Y4" s="23" t="s">
         <v>51</v>
       </c>
@@ -2486,18 +2494,18 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
-      <c r="H5" s="64" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="H5" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2513,7 +2521,7 @@
       <c r="U5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="60"/>
+      <c r="V5" s="70"/>
       <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
@@ -2528,7 +2536,7 @@
       <c r="U6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="60" t="s">
+      <c r="V6" s="70" t="s">
         <v>37</v>
       </c>
       <c r="W6" s="55" t="s">
@@ -2576,7 +2584,7 @@
       <c r="U7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="60"/>
+      <c r="V7" s="70"/>
       <c r="Y7" s="21">
         <v>2</v>
       </c>
@@ -2606,7 +2614,7 @@
       <c r="U8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="60" t="s">
+      <c r="V8" s="70" t="s">
         <v>38</v>
       </c>
       <c r="Y8" s="21">
@@ -2638,7 +2646,7 @@
       <c r="U9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="60"/>
+      <c r="V9" s="70"/>
       <c r="Y9" s="21">
         <v>4</v>
       </c>
@@ -2661,7 +2669,7 @@
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="Q10" s="72" t="s">
+      <c r="Q10" s="67" t="s">
         <v>69</v>
       </c>
       <c r="R10" s="31" t="s">
@@ -2696,7 +2704,7 @@
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="Q11" s="73"/>
+      <c r="Q11" s="68"/>
       <c r="R11" s="4"/>
       <c r="V11" s="34" t="s">
         <v>72</v>
@@ -2811,7 +2819,7 @@
         <v>43</v>
       </c>
       <c r="K13" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="41"/>
       <c r="M13" s="58"/>
@@ -2866,14 +2874,14 @@
         <v>1</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K14" s="38">
         <v>0</v>
       </c>
       <c r="L14" s="42"/>
       <c r="M14" s="58" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="N14" s="42">
         <v>0</v>
@@ -2926,7 +2934,7 @@
         <v>-1</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K15" s="46">
         <v>0</v>
@@ -2982,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K16" s="38">
         <v>0</v>
@@ -3040,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K17" s="38">
         <v>0</v>
@@ -3218,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="43" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M20" s="53"/>
       <c r="N20" s="42">
@@ -3228,14 +3236,16 @@
         <v>111</v>
       </c>
       <c r="P20" s="43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="43"/>
       <c r="R20" s="43"/>
       <c r="S20" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="T20" s="39"/>
+        <v>246</v>
+      </c>
+      <c r="T20" s="39" t="s">
+        <v>291</v>
+      </c>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
       <c r="W20" s="53"/>
@@ -3257,7 +3267,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F21" s="43" t="s">
         <v>112</v>
@@ -3332,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K22" s="38">
         <v>1</v>
@@ -3457,7 +3467,7 @@
         <v>175</v>
       </c>
       <c r="M24" s="53" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N24" s="42">
         <v>0</v>
@@ -3580,7 +3590,7 @@
         <v>130</v>
       </c>
       <c r="P26" s="43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q26" s="43"/>
       <c r="R26" s="43"/>
@@ -3606,7 +3616,7 @@
         <v>92</v>
       </c>
       <c r="D27" s="38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="43" t="s">
@@ -3649,7 +3659,9 @@
       <c r="W27" s="53"/>
       <c r="X27" s="43"/>
       <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
+      <c r="Z27" s="43">
+        <v>1</v>
+      </c>
       <c r="AA27" s="43"/>
       <c r="AB27" s="43"/>
     </row>
@@ -3662,7 +3674,7 @@
         <v>93</v>
       </c>
       <c r="D28" s="38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="43" t="s">
@@ -3684,24 +3696,26 @@
         <v>1</v>
       </c>
       <c r="L28" s="43" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M28" s="53"/>
       <c r="N28" s="42">
         <v>0</v>
       </c>
       <c r="O28" s="39" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P28" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q28" s="43"/>
       <c r="R28" s="43"/>
       <c r="S28" s="49" t="s">
-        <v>251</v>
-      </c>
-      <c r="T28" s="39"/>
+        <v>248</v>
+      </c>
+      <c r="T28" s="39" t="s">
+        <v>292</v>
+      </c>
       <c r="U28" s="43"/>
       <c r="V28" s="43"/>
       <c r="W28" s="53"/>
@@ -3796,7 +3810,7 @@
         <v>-1</v>
       </c>
       <c r="J30" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K30" s="38">
         <v>0</v>
@@ -3970,7 +3984,7 @@
         <v>-1</v>
       </c>
       <c r="J33" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K33" s="38">
         <v>-1</v>
@@ -4024,7 +4038,7 @@
         <v>-1</v>
       </c>
       <c r="J34" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K34" s="38">
         <v>-1</v>
@@ -4078,7 +4092,7 @@
         <v>-1</v>
       </c>
       <c r="J35" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K35" s="38">
         <v>-1</v>
@@ -4089,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="39" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P35" s="43">
         <v>-1</v>
@@ -4132,7 +4146,7 @@
         <v>-1</v>
       </c>
       <c r="J36" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K36" s="38">
         <v>-1</v>
@@ -4382,7 +4396,7 @@
       <c r="T40" s="39"/>
       <c r="U40" s="43"/>
       <c r="V40" s="43" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W40" s="53"/>
       <c r="X40" s="43"/>
@@ -4586,7 +4600,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K44" s="38">
         <v>0</v>
@@ -4714,7 +4728,7 @@
       </c>
       <c r="U46" s="43"/>
       <c r="V46" s="43" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="W46" s="53"/>
       <c r="X46" s="43"/>
@@ -4806,7 +4820,7 @@
         <v>-1</v>
       </c>
       <c r="J48" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K48" s="38">
         <v>0</v>
@@ -4860,7 +4874,7 @@
         <v>-1</v>
       </c>
       <c r="J49" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K49" s="38">
         <v>0</v>
@@ -4940,7 +4954,7 @@
       </c>
       <c r="U50" s="43"/>
       <c r="V50" s="43" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="W50" s="53"/>
       <c r="X50" s="43"/>
@@ -4974,7 +4988,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K51" s="38">
         <v>1</v>
@@ -5041,7 +5055,7 @@
       </c>
       <c r="L52" s="43"/>
       <c r="M52" s="53" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="N52" s="42">
         <v>0</v>
@@ -5055,7 +5069,7 @@
       <c r="Q52" s="43"/>
       <c r="R52" s="43"/>
       <c r="S52" s="43" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="T52" s="39" t="s">
         <v>236</v>
@@ -5101,13 +5115,13 @@
       </c>
       <c r="L53" s="43"/>
       <c r="M53" s="53" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="N53" s="42">
         <v>0</v>
       </c>
       <c r="O53" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P53" s="43">
         <v>6</v>
@@ -5115,10 +5129,10 @@
       <c r="Q53" s="43"/>
       <c r="R53" s="43"/>
       <c r="S53" s="43" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="T53" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U53" s="43"/>
       <c r="V53" s="43"/>
@@ -5135,7 +5149,7 @@
         <v>42</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="D54" s="38">
         <v>11</v>
@@ -5161,13 +5175,13 @@
       </c>
       <c r="L54" s="43"/>
       <c r="M54" s="53" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="N54" s="42">
         <v>0</v>
       </c>
       <c r="O54" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P54" s="43">
         <v>6</v>
@@ -5175,14 +5189,14 @@
       <c r="Q54" s="43"/>
       <c r="R54" s="43"/>
       <c r="S54" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="T54" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="U54" s="43"/>
       <c r="V54" s="43" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="W54" s="53"/>
       <c r="X54" s="43"/>
@@ -5197,7 +5211,7 @@
         <v>43</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D55" s="38">
         <v>2</v>
@@ -5222,16 +5236,16 @@
         <v>1</v>
       </c>
       <c r="L55" s="43" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M55" s="53" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N55" s="42">
         <v>1</v>
       </c>
       <c r="O55" s="39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P55" s="43">
         <v>0</v>
@@ -5239,10 +5253,10 @@
       <c r="Q55" s="43"/>
       <c r="R55" s="43"/>
       <c r="S55" s="43" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="T55" s="39" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="U55" s="43"/>
       <c r="V55" s="43"/>
@@ -5259,7 +5273,7 @@
         <v>44</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D56" s="38">
         <v>2</v>
@@ -5284,16 +5298,16 @@
         <v>1</v>
       </c>
       <c r="L56" s="43" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M56" s="53" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N56" s="42">
         <v>1</v>
       </c>
       <c r="O56" s="39" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P56" s="43">
         <v>1</v>
@@ -5301,7 +5315,7 @@
       <c r="Q56" s="43"/>
       <c r="R56" s="43"/>
       <c r="S56" s="43" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="T56" s="39"/>
       <c r="U56" s="43"/>
@@ -5319,14 +5333,14 @@
         <v>45</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D57" s="38">
         <v>3</v>
       </c>
       <c r="E57" s="43"/>
       <c r="F57" s="43" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G57" s="43">
         <v>2</v>
@@ -5349,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="O57" s="39" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P57" s="43">
         <v>6</v>
@@ -5357,10 +5371,10 @@
       <c r="Q57" s="43"/>
       <c r="R57" s="43"/>
       <c r="S57" s="43" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="T57" s="39" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="U57" s="43"/>
       <c r="V57" s="43"/>
@@ -5377,14 +5391,14 @@
         <v>46</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D58" s="38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58" s="43"/>
       <c r="F58" s="43" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G58" s="43">
         <v>2</v>
@@ -5407,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="39" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P58" s="43">
         <v>6</v>
@@ -5416,7 +5430,7 @@
       <c r="R58" s="43"/>
       <c r="S58" s="43"/>
       <c r="T58" s="39" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="U58" s="43"/>
       <c r="V58" s="43"/>
@@ -5433,10 +5447,10 @@
         <v>47</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D59" s="38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" s="43"/>
       <c r="F59" s="43" t="s">
@@ -5463,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="O59" s="39" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P59" s="43">
         <v>6</v>
@@ -5472,7 +5486,7 @@
       <c r="R59" s="43"/>
       <c r="S59" s="43"/>
       <c r="T59" s="39" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U59" s="43"/>
       <c r="V59" s="43"/>
@@ -5489,7 +5503,7 @@
         <v>48</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D60" s="38">
         <v>5</v>
@@ -5519,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="O60" s="39" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P60" s="43">
         <v>6</v>
@@ -5528,7 +5542,7 @@
       <c r="R60" s="43"/>
       <c r="S60" s="43"/>
       <c r="T60" s="39" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="U60" s="43"/>
       <c r="V60" s="43"/>
@@ -5545,7 +5559,7 @@
         <v>49</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D61" s="38">
         <v>1</v>
@@ -5575,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="39" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P61" s="43">
         <v>1</v>
@@ -5583,10 +5597,10 @@
       <c r="Q61" s="43"/>
       <c r="R61" s="43"/>
       <c r="S61" s="43" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="T61" s="39" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="U61" s="43"/>
       <c r="V61" s="43"/>
@@ -5603,14 +5617,14 @@
         <v>50</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D62" s="38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E62" s="43"/>
       <c r="F62" s="43" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G62" s="43">
         <v>1</v>
@@ -5633,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="O62" s="39" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P62" s="43">
         <v>6</v>
@@ -5641,10 +5655,10 @@
       <c r="Q62" s="43"/>
       <c r="R62" s="43"/>
       <c r="S62" s="43" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T62" s="39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="U62" s="43"/>
       <c r="V62" s="43"/>
@@ -5661,14 +5675,14 @@
         <v>51</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D63" s="38">
         <v>3</v>
       </c>
       <c r="E63" s="43"/>
       <c r="F63" s="43" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G63" s="43">
         <v>2</v>
@@ -5691,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="39" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P63" s="43">
         <v>6</v>
@@ -5700,7 +5714,7 @@
       <c r="R63" s="43"/>
       <c r="S63" s="43"/>
       <c r="T63" s="39" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U63" s="43"/>
       <c r="V63" s="43"/>
@@ -9481,7 +9495,6 @@
   </sheetData>
   <autoFilter ref="A12:U134" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
-    <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="V3:V5"/>
     <mergeCell ref="V6:V7"/>
     <mergeCell ref="V8:V9"/>
@@ -9490,6 +9503,7 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
+    <mergeCell ref="Q10:Q11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
